--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_10_36.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_10_36.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3303053.790824337</v>
+        <v>3300246.089783864</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>10092530.91379689</v>
+        <v>10092530.9137969</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>430763.7823717229</v>
+        <v>430763.7823717227</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8268931.736201292</v>
+        <v>8268931.736201291</v>
       </c>
     </row>
     <row r="11">
@@ -656,7 +656,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>263.2420339516666</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -665,7 +665,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>263.2420339516666</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>6.876045741711437</v>
@@ -677,10 +677,10 @@
         <v>263.2420339516666</v>
       </c>
       <c r="I2" t="n">
-        <v>206.9091621893709</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>2.86815416971411</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -707,16 +707,16 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>206.9118586999128</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>14.76923999190669</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.3382516189322</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>263.2420339516666</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -735,22 +735,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>73.29472053516383</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -786,7 +786,7 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>170.7637213332854</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -798,10 +798,10 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>199.2144475190324</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
         <v>205.6826957773044</v>
@@ -880,10 +880,10 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>159.8350691069749</v>
       </c>
       <c r="Y4" t="n">
-        <v>159.8350691069749</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -896,7 +896,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>5.866284146631346</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -914,10 +914,10 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>5.64440334803165</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>4.097100052852178</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -944,13 +944,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>206.9118586999128</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>222.6908602868995</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.3382516189322</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -959,7 +959,7 @@
         <v>263.2420339516666</v>
       </c>
       <c r="X5" t="n">
-        <v>263.2420339516666</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -972,19 +972,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>109.4852338690975</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -1020,10 +1020,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>97.08446202703756</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>170.7637213332854</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
@@ -1032,13 +1032,13 @@
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>173.9510140953556</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
         <v>205.6826957773044</v>
@@ -1102,7 +1102,7 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>159.8350691069749</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1114,7 +1114,7 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>159.8350691069748</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1130,22 +1130,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>376.7936536521879</v>
       </c>
       <c r="F8" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>14.736584465029</v>
+        <v>399.0721465063727</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1178,13 +1178,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>42.48641082776985</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>196.1188569569539</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>220.6175145872922</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1193,7 +1193,7 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -1215,7 +1215,7 @@
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
@@ -1224,13 +1224,13 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>137.0405985760713</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>109.3098884080723</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>78.96719903982111</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,22 +1257,22 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>81.35030994411811</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>166.0565912067551</v>
       </c>
       <c r="T9" t="n">
-        <v>160.9170651969846</v>
+        <v>198.9437542142032</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>225.9214532265578</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>151.0131473750093</v>
       </c>
       <c r="W9" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
         <v>205.7729852034775</v>
@@ -1306,13 +1306,13 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>159.96926597224</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>75.40443663584742</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1345,10 +1345,10 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.3051771691584</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>30.70190988129655</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1357,7 +1357,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>81.63338444237149</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1418,10 +1418,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>84.61259060081963</v>
+        <v>84.61259060081962</v>
       </c>
       <c r="T11" t="n">
-        <v>199.1970568374736</v>
+        <v>199.1970568374742</v>
       </c>
       <c r="U11" t="n">
         <v>250.9088959876463</v>
@@ -1464,7 +1464,7 @@
         <v>134.4224477376697</v>
       </c>
       <c r="H12" t="n">
-        <v>84.02406320561457</v>
+        <v>84.02406320561455</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1528,25 +1528,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>9.43427371450322</v>
+        <v>20.38088071884254</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5420528771669</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.4539897919539</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.80457674440903</v>
+        <v>81.80457674440902</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>67.18075159108356</v>
+        <v>67.18075159108355</v>
       </c>
       <c r="S13" t="n">
         <v>181.338488358459</v>
@@ -1610,7 +1610,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206818</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>84.61259060081963</v>
+        <v>84.61259060081962</v>
       </c>
       <c r="T14" t="n">
         <v>199.1970568374742</v>
@@ -1701,7 +1701,7 @@
         <v>134.4224477376697</v>
       </c>
       <c r="H15" t="n">
-        <v>84.02406320561457</v>
+        <v>84.02406320561455</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5420528771669</v>
+        <v>111.096703362293</v>
       </c>
       <c r="H16" t="n">
-        <v>64.44601915223836</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.80457674440902</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>67.18075159108356</v>
+        <v>67.18075159108355</v>
       </c>
       <c r="S16" t="n">
         <v>181.338488358459</v>
@@ -1831,7 +1831,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1850,7 +1850,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722607</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>84.61259060081963</v>
+        <v>84.61259060081962</v>
       </c>
       <c r="T17" t="n">
         <v>199.1970568374742</v>
@@ -1938,7 +1938,7 @@
         <v>134.4224477376697</v>
       </c>
       <c r="H18" t="n">
-        <v>84.02406320561457</v>
+        <v>84.02406320561455</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -2002,25 +2002,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>7.729505493042338</v>
+        <v>165.5420528771669</v>
       </c>
       <c r="H19" t="n">
-        <v>140.4539897919539</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.80457674440903</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>67.18075159108356</v>
+        <v>67.18075159108355</v>
       </c>
       <c r="S19" t="n">
         <v>181.338488358459</v>
@@ -2065,7 +2065,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>162.3530599751218</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>84.61259060081963</v>
+        <v>84.61259060081962</v>
       </c>
       <c r="T20" t="n">
         <v>199.1970568374742</v>
@@ -2147,7 +2147,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560522</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -2175,7 +2175,7 @@
         <v>134.4224477376697</v>
       </c>
       <c r="H21" t="n">
-        <v>84.02406320561457</v>
+        <v>84.02406320561455</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2242,7 +2242,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2251,13 +2251,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5420528771669</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>140.4539897919539</v>
       </c>
       <c r="I22" t="n">
-        <v>81.80457674440903</v>
+        <v>81.80457674440902</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,10 +2284,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>67.18075159108355</v>
       </c>
       <c r="S22" t="n">
-        <v>90.70669256541809</v>
+        <v>181.338488358459</v>
       </c>
       <c r="T22" t="n">
         <v>217.4819944627618</v>
@@ -2299,7 +2299,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>145.6370308114212</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>84.61259060081963</v>
+        <v>84.61259060081962</v>
       </c>
       <c r="T23" t="n">
         <v>199.1970568374742</v>
@@ -2412,7 +2412,7 @@
         <v>134.4224477376697</v>
       </c>
       <c r="H24" t="n">
-        <v>84.02406320561457</v>
+        <v>84.02406320561455</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2476,7 +2476,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>9.434273714503275</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2494,7 +2494,7 @@
         <v>140.4539897919539</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.80457674440902</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,13 +2521,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>67.18075159108356</v>
+        <v>67.18075159108355</v>
       </c>
       <c r="S25" t="n">
         <v>181.338488358459</v>
       </c>
       <c r="T25" t="n">
-        <v>141.4740238230462</v>
+        <v>217.4819944627618</v>
       </c>
       <c r="U25" t="n">
         <v>286.1854515484204</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>84.61259060081963</v>
+        <v>84.61259060081962</v>
       </c>
       <c r="T26" t="n">
         <v>199.1970568374742</v>
@@ -2649,7 +2649,7 @@
         <v>134.4224477376697</v>
       </c>
       <c r="H27" t="n">
-        <v>84.02406320561457</v>
+        <v>84.02406320561455</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2713,25 +2713,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>165.5420528771669</v>
       </c>
       <c r="H28" t="n">
-        <v>140.4539897919539</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>12.99855402706473</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>67.18075159108355</v>
       </c>
       <c r="S28" t="n">
         <v>181.338488358459</v>
@@ -2767,7 +2767,7 @@
         <v>217.4819944627618</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1854515484204</v>
+        <v>55.58203503587739</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>84.61259060081963</v>
+        <v>84.61259060081962</v>
       </c>
       <c r="T29" t="n">
         <v>199.1970568374742</v>
@@ -2886,7 +2886,7 @@
         <v>134.4224477376697</v>
       </c>
       <c r="H30" t="n">
-        <v>84.02406320561457</v>
+        <v>84.02406320561455</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2950,22 +2950,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>91.23885045891222</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>85.258877604297</v>
       </c>
       <c r="G31" t="n">
         <v>165.5420528771669</v>
       </c>
       <c r="H31" t="n">
-        <v>140.4539897919539</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>67.18075159108356</v>
+        <v>67.18075159108355</v>
       </c>
       <c r="S31" t="n">
         <v>181.338488358459</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>84.61259060081963</v>
+        <v>84.61259060081962</v>
       </c>
       <c r="T32" t="n">
         <v>199.1970568374742</v>
@@ -3123,7 +3123,7 @@
         <v>134.4224477376697</v>
       </c>
       <c r="H33" t="n">
-        <v>84.02406320561457</v>
+        <v>84.02406320561455</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -3187,22 +3187,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>3.824156177168405</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>165.5420528771669</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>67.18075159108355</v>
       </c>
       <c r="S34" t="n">
         <v>181.338488358459</v>
@@ -3250,7 +3250,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>171.5274578250182</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -3278,7 +3278,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8432760127566</v>
+        <v>409.8432760127576</v>
       </c>
       <c r="H35" t="n">
         <v>283.5630920045443</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>84.61259060081963</v>
+        <v>84.61259060081962</v>
       </c>
       <c r="T35" t="n">
         <v>199.1970568374742</v>
@@ -3360,7 +3360,7 @@
         <v>134.4224477376697</v>
       </c>
       <c r="H36" t="n">
-        <v>84.02406320561457</v>
+        <v>84.02406320561455</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
@@ -3430,19 +3430,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>165.5420528771669</v>
       </c>
       <c r="H37" t="n">
-        <v>140.4539897919539</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.80457674440902</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,10 +3469,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>67.18075159108356</v>
+        <v>67.18075159108355</v>
       </c>
       <c r="S37" t="n">
-        <v>96.8296575367962</v>
+        <v>181.338488358459</v>
       </c>
       <c r="T37" t="n">
         <v>217.4819944627618</v>
@@ -3481,13 +3481,13 @@
         <v>286.1854515484204</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>59.73562477865413</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3512,7 +3512,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417104</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
         <v>409.8432760127576</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>84.61259060081963</v>
+        <v>84.61259060081962</v>
       </c>
       <c r="T38" t="n">
         <v>199.1970568374742</v>
@@ -3597,7 +3597,7 @@
         <v>134.4224477376697</v>
       </c>
       <c r="H39" t="n">
-        <v>84.02406320561457</v>
+        <v>84.02406320561455</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3661,10 +3661,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>91.23885045891228</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3673,13 +3673,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5420528771669</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>140.4539897919539</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.80457674440902</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>67.18075159108356</v>
+        <v>67.18075159108355</v>
       </c>
       <c r="S40" t="n">
         <v>181.338488358459</v>
@@ -3724,7 +3724,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>84.82368786386726</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -3743,7 +3743,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>354.6830416206822</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
         <v>381.9303700722618</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>84.61259060081963</v>
+        <v>84.61259060081962</v>
       </c>
       <c r="T41" t="n">
         <v>199.1970568374742</v>
@@ -3834,7 +3834,7 @@
         <v>134.4224477376697</v>
       </c>
       <c r="H42" t="n">
-        <v>84.02406320561457</v>
+        <v>84.02406320561455</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3901,22 +3901,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>7.018581172449524</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>20.38088071884254</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5420528771669</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.80457674440902</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>67.18075159108355</v>
       </c>
       <c r="S43" t="n">
         <v>181.338488358459</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>84.61259060081963</v>
+        <v>84.61259060081962</v>
       </c>
       <c r="T44" t="n">
         <v>199.1970568374742</v>
@@ -4071,7 +4071,7 @@
         <v>134.4224477376697</v>
       </c>
       <c r="H45" t="n">
-        <v>84.02406320561457</v>
+        <v>84.02406320561455</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4135,13 +4135,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>9.434273714503275</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -4150,10 +4150,10 @@
         <v>165.5420528771669</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.80457674440902</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,10 +4180,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>67.18075159108355</v>
       </c>
       <c r="S46" t="n">
-        <v>166.5312964552119</v>
+        <v>181.338488358459</v>
       </c>
       <c r="T46" t="n">
         <v>217.4819944627618</v>
@@ -4304,28 +4304,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>787.0670914110435</v>
+        <v>309.2697678648296</v>
       </c>
       <c r="C2" t="n">
-        <v>787.0670914110435</v>
+        <v>309.2697678648296</v>
       </c>
       <c r="D2" t="n">
-        <v>787.0670914110435</v>
+        <v>309.2697678648296</v>
       </c>
       <c r="E2" t="n">
-        <v>521.1660470154206</v>
+        <v>309.2697678648296</v>
       </c>
       <c r="F2" t="n">
-        <v>514.2205462662172</v>
+        <v>302.3242671156262</v>
       </c>
       <c r="G2" t="n">
-        <v>498.8566862623471</v>
+        <v>286.9604071117561</v>
       </c>
       <c r="H2" t="n">
-        <v>232.9556418667243</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="I2" t="n">
-        <v>23.95648814008698</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="J2" t="n">
         <v>21.05936271613333</v>
@@ -4355,25 +4355,25 @@
         <v>1052.968135806666</v>
       </c>
       <c r="S2" t="n">
-        <v>1052.968135806666</v>
+        <v>843.966258332007</v>
       </c>
       <c r="T2" t="n">
-        <v>1052.968135806666</v>
+        <v>829.0478340977578</v>
       </c>
       <c r="U2" t="n">
-        <v>1052.968135806666</v>
+        <v>575.1708122604525</v>
       </c>
       <c r="V2" t="n">
-        <v>1052.968135806666</v>
+        <v>309.2697678648296</v>
       </c>
       <c r="W2" t="n">
-        <v>1052.968135806666</v>
+        <v>309.2697678648296</v>
       </c>
       <c r="X2" t="n">
-        <v>1052.968135806666</v>
+        <v>309.2697678648296</v>
       </c>
       <c r="Y2" t="n">
-        <v>1052.968135806666</v>
+        <v>309.2697678648296</v>
       </c>
     </row>
     <row r="3">
@@ -4383,19 +4383,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>475.7657853559551</v>
+        <v>418.4818729061519</v>
       </c>
       <c r="C3" t="n">
-        <v>475.7657853559551</v>
+        <v>244.0288436250248</v>
       </c>
       <c r="D3" t="n">
-        <v>326.8313756947039</v>
+        <v>95.09443396377358</v>
       </c>
       <c r="E3" t="n">
-        <v>167.5939206892484</v>
+        <v>95.09443396377358</v>
       </c>
       <c r="F3" t="n">
-        <v>21.05936271613333</v>
+        <v>95.09443396377358</v>
       </c>
       <c r="G3" t="n">
         <v>21.05936271613333</v>
@@ -4410,16 +4410,16 @@
         <v>24.9501803568321</v>
       </c>
       <c r="K3" t="n">
-        <v>24.9501803568321</v>
+        <v>158.2210505399123</v>
       </c>
       <c r="L3" t="n">
-        <v>24.9501803568321</v>
+        <v>398.8245784347747</v>
       </c>
       <c r="M3" t="n">
-        <v>264.2940185443781</v>
+        <v>524.7070826368702</v>
       </c>
       <c r="N3" t="n">
-        <v>524.903632156528</v>
+        <v>785.3166962490201</v>
       </c>
       <c r="O3" t="n">
         <v>785.3166962490201</v>
@@ -4434,25 +4434,25 @@
         <v>1052.968135806666</v>
       </c>
       <c r="S3" t="n">
-        <v>1052.968135806666</v>
+        <v>880.4795283993074</v>
       </c>
       <c r="T3" t="n">
-        <v>1052.968135806666</v>
+        <v>880.4795283993074</v>
       </c>
       <c r="U3" t="n">
-        <v>1052.968135806666</v>
+        <v>880.4795283993074</v>
       </c>
       <c r="V3" t="n">
-        <v>1052.968135806666</v>
+        <v>880.4795283993074</v>
       </c>
       <c r="W3" t="n">
-        <v>1052.968135806666</v>
+        <v>626.2421716711058</v>
       </c>
       <c r="X3" t="n">
-        <v>851.7414211409771</v>
+        <v>626.2421716711058</v>
       </c>
       <c r="Y3" t="n">
-        <v>643.9811223760232</v>
+        <v>418.4818729061519</v>
       </c>
     </row>
     <row r="4">
@@ -4528,7 +4528,7 @@
         <v>182.5089274706535</v>
       </c>
       <c r="X4" t="n">
-        <v>182.5089274706535</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="Y4" t="n">
         <v>21.05936271613333</v>
@@ -4541,49 +4541,49 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>312.1641695407614</v>
+        <v>308.2498066576781</v>
       </c>
       <c r="C5" t="n">
-        <v>312.1641695407614</v>
+        <v>302.3242671156262</v>
       </c>
       <c r="D5" t="n">
-        <v>312.1641695407614</v>
+        <v>302.3242671156262</v>
       </c>
       <c r="E5" t="n">
-        <v>312.1641695407614</v>
+        <v>302.3242671156262</v>
       </c>
       <c r="F5" t="n">
-        <v>46.26312514513859</v>
+        <v>36.42322272000341</v>
       </c>
       <c r="G5" t="n">
-        <v>30.89926514126851</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="H5" t="n">
-        <v>30.89926514126851</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="I5" t="n">
-        <v>25.19784761800422</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="J5" t="n">
         <v>21.05936271613333</v>
       </c>
       <c r="K5" t="n">
-        <v>135.7250809573683</v>
+        <v>135.7250809573682</v>
       </c>
       <c r="L5" t="n">
-        <v>330.2546714142362</v>
+        <v>330.2546714142361</v>
       </c>
       <c r="M5" t="n">
         <v>563.3128681098024</v>
       </c>
       <c r="N5" t="n">
-        <v>785.5101925369328</v>
+        <v>785.5101925369329</v>
       </c>
       <c r="O5" t="n">
-        <v>950.1371873885138</v>
+        <v>950.137187388514</v>
       </c>
       <c r="P5" t="n">
-        <v>1052.968135806666</v>
+        <v>1052.968135806667</v>
       </c>
       <c r="Q5" t="n">
         <v>1052.968135806666</v>
@@ -4592,25 +4592,25 @@
         <v>1052.968135806666</v>
       </c>
       <c r="S5" t="n">
-        <v>843.966258332007</v>
+        <v>1052.968135806666</v>
       </c>
       <c r="T5" t="n">
-        <v>843.966258332007</v>
+        <v>828.0278728906062</v>
       </c>
       <c r="U5" t="n">
-        <v>843.966258332007</v>
+        <v>574.1508510533009</v>
       </c>
       <c r="V5" t="n">
-        <v>843.966258332007</v>
+        <v>574.1508510533009</v>
       </c>
       <c r="W5" t="n">
-        <v>578.0652139363842</v>
+        <v>308.2498066576781</v>
       </c>
       <c r="X5" t="n">
-        <v>312.1641695407614</v>
+        <v>308.2498066576781</v>
       </c>
       <c r="Y5" t="n">
-        <v>312.1641695407614</v>
+        <v>308.2498066576781</v>
       </c>
     </row>
     <row r="6">
@@ -4620,16 +4620,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>501.2844049758309</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="C6" t="n">
-        <v>326.8313756947039</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="D6" t="n">
-        <v>326.8313756947039</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="E6" t="n">
-        <v>167.5939206892484</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="F6" t="n">
         <v>21.05936271613333</v>
@@ -4644,52 +4644,52 @@
         <v>21.05936271613333</v>
       </c>
       <c r="J6" t="n">
-        <v>21.05936271613333</v>
+        <v>24.9501803568321</v>
       </c>
       <c r="K6" t="n">
-        <v>21.05936271613333</v>
+        <v>158.2210505399123</v>
       </c>
       <c r="L6" t="n">
-        <v>21.05936271613333</v>
+        <v>398.8245784347747</v>
       </c>
       <c r="M6" t="n">
-        <v>281.6689763282832</v>
+        <v>398.8245784347747</v>
       </c>
       <c r="N6" t="n">
-        <v>542.2785899404332</v>
+        <v>659.4341920469246</v>
       </c>
       <c r="O6" t="n">
-        <v>802.6916540329253</v>
+        <v>919.8472561394167</v>
       </c>
       <c r="P6" t="n">
-        <v>994.6930287110238</v>
+        <v>977.3180709271187</v>
       </c>
       <c r="Q6" t="n">
         <v>1052.968135806666</v>
       </c>
       <c r="R6" t="n">
-        <v>1052.968135806666</v>
+        <v>954.9030226480426</v>
       </c>
       <c r="S6" t="n">
-        <v>1052.968135806666</v>
+        <v>782.4144152406835</v>
       </c>
       <c r="T6" t="n">
-        <v>1052.968135806666</v>
+        <v>782.4144152406835</v>
       </c>
       <c r="U6" t="n">
-        <v>1052.968135806666</v>
+        <v>782.4144152406835</v>
       </c>
       <c r="V6" t="n">
-        <v>1052.968135806666</v>
+        <v>547.2623070089408</v>
       </c>
       <c r="W6" t="n">
-        <v>877.2600407608527</v>
+        <v>547.2623070089408</v>
       </c>
       <c r="X6" t="n">
-        <v>877.2600407608527</v>
+        <v>339.4108068034079</v>
       </c>
       <c r="Y6" t="n">
-        <v>669.4997419958988</v>
+        <v>131.650508038454</v>
       </c>
     </row>
     <row r="7">
@@ -4729,7 +4729,7 @@
         <v>21.05936271613333</v>
       </c>
       <c r="L7" t="n">
-        <v>54.48163939360295</v>
+        <v>54.48163939360296</v>
       </c>
       <c r="M7" t="n">
         <v>100.1098670955239</v>
@@ -4741,25 +4741,25 @@
         <v>180.2341645716483</v>
       </c>
       <c r="P7" t="n">
-        <v>182.5089274706534</v>
+        <v>182.5089274706535</v>
       </c>
       <c r="Q7" t="n">
-        <v>182.5089274706534</v>
+        <v>182.5089274706535</v>
       </c>
       <c r="R7" t="n">
-        <v>182.5089274706534</v>
+        <v>182.5089274706535</v>
       </c>
       <c r="S7" t="n">
-        <v>182.5089274706534</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="T7" t="n">
-        <v>182.5089274706534</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="U7" t="n">
-        <v>182.5089274706534</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="V7" t="n">
-        <v>182.5089274706534</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="W7" t="n">
         <v>21.05936271613333</v>
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1166.773179468685</v>
+        <v>822.5741009127039</v>
       </c>
       <c r="C8" t="n">
-        <v>797.8106625282729</v>
+        <v>822.5741009127039</v>
       </c>
       <c r="D8" t="n">
-        <v>439.5449639215224</v>
+        <v>822.5741009127039</v>
       </c>
       <c r="E8" t="n">
-        <v>53.75671132327818</v>
+        <v>441.9744507589787</v>
       </c>
       <c r="F8" t="n">
-        <v>46.81121057407471</v>
+        <v>435.0289500097753</v>
       </c>
       <c r="G8" t="n">
-        <v>31.92577172051007</v>
+        <v>31.92577172050982</v>
       </c>
       <c r="H8" t="n">
-        <v>31.92577172051007</v>
+        <v>31.92577172050982</v>
       </c>
       <c r="I8" t="n">
-        <v>31.92577172051007</v>
+        <v>31.92577172050982</v>
       </c>
       <c r="J8" t="n">
-        <v>67.66699237151772</v>
+        <v>67.6669923715167</v>
       </c>
       <c r="K8" t="n">
-        <v>241.9786214193934</v>
+        <v>241.9786214193912</v>
       </c>
       <c r="L8" t="n">
-        <v>510.5042384841167</v>
+        <v>510.5042384841126</v>
       </c>
       <c r="M8" t="n">
-        <v>825.8972722888607</v>
+        <v>825.8972722888549</v>
       </c>
       <c r="N8" t="n">
-        <v>1131.761697568018</v>
+        <v>1131.76169756801</v>
       </c>
       <c r="O8" t="n">
-        <v>1375.393163234511</v>
+        <v>1375.393163234501</v>
       </c>
       <c r="P8" t="n">
-        <v>1545.652599660159</v>
+        <v>1545.652599660148</v>
       </c>
       <c r="Q8" t="n">
-        <v>1596.288586025503</v>
+        <v>1596.288586025491</v>
       </c>
       <c r="R8" t="n">
-        <v>1553.373019532806</v>
+        <v>1596.288586025491</v>
       </c>
       <c r="S8" t="n">
-        <v>1553.373019532806</v>
+        <v>1398.188730513416</v>
       </c>
       <c r="T8" t="n">
-        <v>1553.373019532806</v>
+        <v>1175.342756182818</v>
       </c>
       <c r="U8" t="n">
-        <v>1553.373019532806</v>
+        <v>1175.342756182818</v>
       </c>
       <c r="V8" t="n">
-        <v>1553.373019532806</v>
+        <v>1175.342756182818</v>
       </c>
       <c r="W8" t="n">
-        <v>1553.373019532806</v>
+        <v>822.5741009127039</v>
       </c>
       <c r="X8" t="n">
-        <v>1553.373019532806</v>
+        <v>822.5741009127039</v>
       </c>
       <c r="Y8" t="n">
-        <v>1553.373019532806</v>
+        <v>822.5741009127039</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>360.5294949770401</v>
+        <v>180.8601813817611</v>
       </c>
       <c r="C9" t="n">
-        <v>360.5294949770401</v>
+        <v>180.8601813817611</v>
       </c>
       <c r="D9" t="n">
-        <v>360.5294949770401</v>
+        <v>31.92577172050982</v>
       </c>
       <c r="E9" t="n">
-        <v>360.5294949770401</v>
+        <v>31.92577172050982</v>
       </c>
       <c r="F9" t="n">
-        <v>360.5294949770401</v>
+        <v>31.92577172050982</v>
       </c>
       <c r="G9" t="n">
-        <v>222.1046479305034</v>
+        <v>31.92577172050982</v>
       </c>
       <c r="H9" t="n">
-        <v>111.6906192354809</v>
+        <v>31.92577172050982</v>
       </c>
       <c r="I9" t="n">
-        <v>31.92577172051007</v>
+        <v>31.92577172050982</v>
       </c>
       <c r="J9" t="n">
-        <v>59.5196182053734</v>
+        <v>59.51961820537262</v>
       </c>
       <c r="K9" t="n">
-        <v>233.3027400460185</v>
+        <v>163.464108436137</v>
       </c>
       <c r="L9" t="n">
-        <v>528.3799898168555</v>
+        <v>458.5413582069727</v>
       </c>
       <c r="M9" t="n">
-        <v>923.4614148581676</v>
+        <v>853.6227832482817</v>
       </c>
       <c r="N9" t="n">
-        <v>928.5994768785357</v>
+        <v>1248.704208289591</v>
       </c>
       <c r="O9" t="n">
-        <v>1248.704208289601</v>
+        <v>1248.704208289591</v>
       </c>
       <c r="P9" t="n">
-        <v>1488.613408501205</v>
+        <v>1488.613408501194</v>
       </c>
       <c r="Q9" t="n">
-        <v>1596.288586025503</v>
+        <v>1596.288586025491</v>
       </c>
       <c r="R9" t="n">
-        <v>1596.288586025503</v>
+        <v>1514.116555778907</v>
       </c>
       <c r="S9" t="n">
-        <v>1596.288586025503</v>
+        <v>1346.382625267033</v>
       </c>
       <c r="T9" t="n">
-        <v>1433.746095927539</v>
+        <v>1145.42933818198</v>
       </c>
       <c r="U9" t="n">
-        <v>1433.746095927539</v>
+        <v>917.2258500743454</v>
       </c>
       <c r="V9" t="n">
-        <v>1198.593987695796</v>
+        <v>764.6873173723159</v>
       </c>
       <c r="W9" t="n">
-        <v>944.3566309675948</v>
+        <v>764.6873173723159</v>
       </c>
       <c r="X9" t="n">
-        <v>736.505130762062</v>
+        <v>556.835817166783</v>
       </c>
       <c r="Y9" t="n">
-        <v>528.7448319971081</v>
+        <v>349.0755184018291</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>269.676986476154</v>
+        <v>31.92577172050982</v>
       </c>
       <c r="C10" t="n">
-        <v>269.676986476154</v>
+        <v>31.92577172050982</v>
       </c>
       <c r="D10" t="n">
-        <v>269.676986476154</v>
+        <v>31.92577172050982</v>
       </c>
       <c r="E10" t="n">
-        <v>269.676986476154</v>
+        <v>31.92577172050982</v>
       </c>
       <c r="F10" t="n">
-        <v>269.676986476154</v>
+        <v>31.92577172050982</v>
       </c>
       <c r="G10" t="n">
-        <v>269.676986476154</v>
+        <v>31.92577172050982</v>
       </c>
       <c r="H10" t="n">
-        <v>108.0918693324772</v>
+        <v>31.92577172050982</v>
       </c>
       <c r="I10" t="n">
-        <v>108.0918693324772</v>
+        <v>31.92577172050982</v>
       </c>
       <c r="J10" t="n">
-        <v>31.92577172051007</v>
+        <v>31.92577172050982</v>
       </c>
       <c r="K10" t="n">
-        <v>39.0890822409558</v>
+        <v>39.089082240955</v>
       </c>
       <c r="L10" t="n">
-        <v>103.7820880685947</v>
+        <v>103.7820880685932</v>
       </c>
       <c r="M10" t="n">
-        <v>182.3809151796124</v>
+        <v>182.3809151796101</v>
       </c>
       <c r="N10" t="n">
-        <v>264.5454542807998</v>
+        <v>264.5454542807968</v>
       </c>
       <c r="O10" t="n">
-        <v>324.4214093422741</v>
+        <v>324.4214093422704</v>
       </c>
       <c r="P10" t="n">
-        <v>352.1349505593575</v>
+        <v>352.1349505593532</v>
       </c>
       <c r="Q10" t="n">
-        <v>352.1349505593575</v>
+        <v>352.1349505593532</v>
       </c>
       <c r="R10" t="n">
-        <v>352.1349505593575</v>
+        <v>352.1349505593532</v>
       </c>
       <c r="S10" t="n">
-        <v>352.1349505593575</v>
+        <v>352.1349505593532</v>
       </c>
       <c r="T10" t="n">
-        <v>352.1349505593575</v>
+        <v>352.1349505593532</v>
       </c>
       <c r="U10" t="n">
-        <v>352.1349505593575</v>
+        <v>62.93780190363765</v>
       </c>
       <c r="V10" t="n">
-        <v>352.1349505593575</v>
+        <v>31.92577172050982</v>
       </c>
       <c r="W10" t="n">
-        <v>352.1349505593575</v>
+        <v>31.92577172050982</v>
       </c>
       <c r="X10" t="n">
-        <v>352.1349505593575</v>
+        <v>31.92577172050982</v>
       </c>
       <c r="Y10" t="n">
-        <v>269.676986476154</v>
+        <v>31.92577172050982</v>
       </c>
     </row>
     <row r="11">
@@ -5015,19 +5015,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2318.261193831371</v>
+        <v>2318.261193831369</v>
       </c>
       <c r="C11" t="n">
-        <v>1949.298676890959</v>
+        <v>1949.298676890958</v>
       </c>
       <c r="D11" t="n">
-        <v>1591.032978284208</v>
+        <v>1591.032978284207</v>
       </c>
       <c r="E11" t="n">
-        <v>1205.244725685964</v>
+        <v>1205.244725685963</v>
       </c>
       <c r="F11" t="n">
-        <v>794.2588208963565</v>
+        <v>794.2588208963562</v>
       </c>
       <c r="G11" t="n">
         <v>380.2757138127629</v>
@@ -5039,25 +5039,25 @@
         <v>93.84834815160703</v>
       </c>
       <c r="J11" t="n">
-        <v>424.14374500152</v>
+        <v>373.34422365072</v>
       </c>
       <c r="K11" t="n">
-        <v>893.7741287892018</v>
+        <v>842.974607438402</v>
       </c>
       <c r="L11" t="n">
-        <v>1513.293909294976</v>
+        <v>1462.494387944177</v>
       </c>
       <c r="M11" t="n">
-        <v>2234.298471234014</v>
+        <v>2183.498949883215</v>
       </c>
       <c r="N11" t="n">
-        <v>2971.58344915112</v>
+        <v>2920.783927800321</v>
       </c>
       <c r="O11" t="n">
-        <v>3654.445485610258</v>
+        <v>3603.64596425946</v>
       </c>
       <c r="P11" t="n">
-        <v>4202.751434297606</v>
+        <v>4151.951912946808</v>
       </c>
       <c r="Q11" t="n">
         <v>4566.333620403613</v>
@@ -5072,19 +5072,19 @@
         <v>4405.740996026519</v>
       </c>
       <c r="U11" t="n">
-        <v>4152.297666746069</v>
+        <v>4152.297666746068</v>
       </c>
       <c r="V11" t="n">
-        <v>3821.234779402499</v>
+        <v>3821.234779402497</v>
       </c>
       <c r="W11" t="n">
-        <v>3468.466124132384</v>
+        <v>3468.466124132383</v>
       </c>
       <c r="X11" t="n">
-        <v>3095.000365871304</v>
+        <v>3095.000365871303</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.861033895493</v>
+        <v>2704.861033895491</v>
       </c>
     </row>
     <row r="12">
@@ -5118,28 +5118,28 @@
         <v>93.84834815160703</v>
       </c>
       <c r="J12" t="n">
-        <v>93.84834815160703</v>
+        <v>241.496329903453</v>
       </c>
       <c r="K12" t="n">
-        <v>93.84834815160703</v>
+        <v>572.0050724668117</v>
       </c>
       <c r="L12" t="n">
-        <v>373.2380436180325</v>
+        <v>1062.737405310563</v>
       </c>
       <c r="M12" t="n">
-        <v>965.2563978701601</v>
+        <v>1246.245394651197</v>
       </c>
       <c r="N12" t="n">
-        <v>1587.352361269496</v>
+        <v>1868.341358050533</v>
       </c>
       <c r="O12" t="n">
-        <v>2134.22883626969</v>
+        <v>1868.341358050533</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.812354695766</v>
+        <v>2287.924876476609</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.812354695766</v>
+        <v>2518.486150461856</v>
       </c>
       <c r="R12" t="n">
         <v>2553.812354695766</v>
@@ -5176,19 +5176,19 @@
         <v>495.0957149476001</v>
       </c>
       <c r="C13" t="n">
-        <v>485.566145539011</v>
+        <v>474.508966746749</v>
       </c>
       <c r="D13" t="n">
-        <v>485.566145539011</v>
+        <v>324.3923273344133</v>
       </c>
       <c r="E13" t="n">
-        <v>485.566145539011</v>
+        <v>176.4792337520202</v>
       </c>
       <c r="F13" t="n">
-        <v>485.566145539011</v>
+        <v>176.4792337520202</v>
       </c>
       <c r="G13" t="n">
-        <v>318.3519507135898</v>
+        <v>176.4792337520202</v>
       </c>
       <c r="H13" t="n">
         <v>176.4792337520202</v>
@@ -5252,10 +5252,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2318.261193831371</v>
+        <v>2318.261193831369</v>
       </c>
       <c r="C14" t="n">
-        <v>1949.298676890959</v>
+        <v>1949.298676890958</v>
       </c>
       <c r="D14" t="n">
         <v>1591.032978284208</v>
@@ -5264,7 +5264,7 @@
         <v>1205.244725685964</v>
       </c>
       <c r="F14" t="n">
-        <v>794.2588208963566</v>
+        <v>794.2588208963565</v>
       </c>
       <c r="G14" t="n">
         <v>380.2757138127629</v>
@@ -5276,10 +5276,10 @@
         <v>93.84834815160703</v>
       </c>
       <c r="J14" t="n">
-        <v>373.3442236507199</v>
+        <v>373.34422365072</v>
       </c>
       <c r="K14" t="n">
-        <v>893.7741287892018</v>
+        <v>842.974607438402</v>
       </c>
       <c r="L14" t="n">
         <v>1513.293909294976</v>
@@ -5321,7 +5321,7 @@
         <v>3095.000365871303</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.861033895493</v>
+        <v>2704.861033895491</v>
       </c>
     </row>
     <row r="15">
@@ -5355,22 +5355,22 @@
         <v>93.84834815160703</v>
       </c>
       <c r="J15" t="n">
-        <v>93.84834815160703</v>
+        <v>241.496329903453</v>
       </c>
       <c r="K15" t="n">
-        <v>302.0892292003572</v>
+        <v>241.496329903453</v>
       </c>
       <c r="L15" t="n">
-        <v>792.8215620441084</v>
+        <v>373.2380436180322</v>
       </c>
       <c r="M15" t="n">
-        <v>1384.839916296236</v>
+        <v>965.25639787016</v>
       </c>
       <c r="N15" t="n">
-        <v>2006.935879695572</v>
+        <v>1587.352361269496</v>
       </c>
       <c r="O15" t="n">
-        <v>2553.812354695766</v>
+        <v>2134.22883626969</v>
       </c>
       <c r="P15" t="n">
         <v>2553.812354695766</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>495.0957149476001</v>
+        <v>897.5367589213699</v>
       </c>
       <c r="C16" t="n">
-        <v>326.1595320196932</v>
+        <v>728.6005759934631</v>
       </c>
       <c r="D16" t="n">
-        <v>326.1595320196932</v>
+        <v>578.4839365811273</v>
       </c>
       <c r="E16" t="n">
-        <v>326.1595320196932</v>
+        <v>430.5708429987342</v>
       </c>
       <c r="F16" t="n">
-        <v>326.1595320196932</v>
+        <v>430.5708429987342</v>
       </c>
       <c r="G16" t="n">
-        <v>158.945337194272</v>
+        <v>318.3519507135898</v>
       </c>
       <c r="H16" t="n">
-        <v>93.84834815160703</v>
+        <v>176.4792337520202</v>
       </c>
       <c r="I16" t="n">
         <v>93.84834815160703</v>
@@ -5479,7 +5479,7 @@
         <v>897.5367589213699</v>
       </c>
       <c r="Y16" t="n">
-        <v>676.7441797778398</v>
+        <v>897.5367589213699</v>
       </c>
     </row>
     <row r="17">
@@ -5489,13 +5489,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2318.261193831369</v>
+        <v>2318.261193831371</v>
       </c>
       <c r="C17" t="n">
-        <v>1949.298676890958</v>
+        <v>1949.298676890959</v>
       </c>
       <c r="D17" t="n">
-        <v>1591.032978284207</v>
+        <v>1591.032978284208</v>
       </c>
       <c r="E17" t="n">
         <v>1205.244725685964</v>
@@ -5513,19 +5513,19 @@
         <v>93.84834815160703</v>
       </c>
       <c r="J17" t="n">
-        <v>373.3442236507199</v>
+        <v>424.1437450015196</v>
       </c>
       <c r="K17" t="n">
-        <v>842.9746074384018</v>
+        <v>893.7741287892015</v>
       </c>
       <c r="L17" t="n">
-        <v>1462.494387944176</v>
+        <v>1513.293909294976</v>
       </c>
       <c r="M17" t="n">
-        <v>2183.498949883214</v>
+        <v>2234.298471234014</v>
       </c>
       <c r="N17" t="n">
-        <v>2920.78392780032</v>
+        <v>2971.58344915112</v>
       </c>
       <c r="O17" t="n">
         <v>3654.445485610258</v>
@@ -5546,19 +5546,19 @@
         <v>4405.740996026519</v>
       </c>
       <c r="U17" t="n">
-        <v>4152.297666746068</v>
+        <v>4152.297666746069</v>
       </c>
       <c r="V17" t="n">
-        <v>3821.234779402497</v>
+        <v>3821.234779402498</v>
       </c>
       <c r="W17" t="n">
-        <v>3468.466124132383</v>
+        <v>3468.466124132384</v>
       </c>
       <c r="X17" t="n">
-        <v>3095.000365871303</v>
+        <v>3095.000365871304</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.861033895491</v>
+        <v>2704.861033895492</v>
       </c>
     </row>
     <row r="18">
@@ -5589,31 +5589,31 @@
         <v>93.84834815160703</v>
       </c>
       <c r="I18" t="n">
-        <v>93.84834815160703</v>
+        <v>94.88738072612962</v>
       </c>
       <c r="J18" t="n">
-        <v>93.84834815160703</v>
+        <v>242.5353624779756</v>
       </c>
       <c r="K18" t="n">
-        <v>93.84834815160703</v>
+        <v>242.5353624779756</v>
       </c>
       <c r="L18" t="n">
-        <v>584.5806809953583</v>
+        <v>733.2676953217269</v>
       </c>
       <c r="M18" t="n">
-        <v>1176.599035247486</v>
+        <v>733.2676953217269</v>
       </c>
       <c r="N18" t="n">
-        <v>1798.694998646822</v>
+        <v>1321.464883050339</v>
       </c>
       <c r="O18" t="n">
-        <v>2345.571473647016</v>
+        <v>1868.341358050533</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.812354695766</v>
+        <v>2287.924876476609</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.812354695766</v>
+        <v>2518.486150461856</v>
       </c>
       <c r="R18" t="n">
         <v>2553.812354695766</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>495.0957149476001</v>
+        <v>559.092275971757</v>
       </c>
       <c r="C19" t="n">
-        <v>326.1595320196932</v>
+        <v>559.092275971757</v>
       </c>
       <c r="D19" t="n">
-        <v>326.1595320196932</v>
+        <v>408.9756365594213</v>
       </c>
       <c r="E19" t="n">
-        <v>326.1595320196932</v>
+        <v>261.0625429770282</v>
       </c>
       <c r="F19" t="n">
-        <v>326.1595320196932</v>
+        <v>261.0625429770282</v>
       </c>
       <c r="G19" t="n">
-        <v>318.3519507135898</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="H19" t="n">
-        <v>176.4792337520202</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I19" t="n">
         <v>93.84834815160703</v>
@@ -5713,10 +5713,10 @@
         <v>1125.526309819387</v>
       </c>
       <c r="X19" t="n">
-        <v>897.5367589213699</v>
+        <v>961.5333199455268</v>
       </c>
       <c r="Y19" t="n">
-        <v>676.7441797778398</v>
+        <v>740.7407408019967</v>
       </c>
     </row>
     <row r="20">
@@ -5726,10 +5726,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2318.261193831371</v>
+        <v>2318.26119383137</v>
       </c>
       <c r="C20" t="n">
-        <v>1949.298676890959</v>
+        <v>1949.298676890958</v>
       </c>
       <c r="D20" t="n">
         <v>1591.032978284208</v>
@@ -5738,7 +5738,7 @@
         <v>1205.244725685964</v>
       </c>
       <c r="F20" t="n">
-        <v>794.2588208963565</v>
+        <v>794.2588208963562</v>
       </c>
       <c r="G20" t="n">
         <v>380.2757138127629</v>
@@ -5750,28 +5750,28 @@
         <v>93.84834815160703</v>
       </c>
       <c r="J20" t="n">
-        <v>373.3442236507199</v>
+        <v>373.34422365072</v>
       </c>
       <c r="K20" t="n">
-        <v>842.9746074384018</v>
+        <v>842.974607438402</v>
       </c>
       <c r="L20" t="n">
-        <v>1462.494387944176</v>
+        <v>1462.494387944177</v>
       </c>
       <c r="M20" t="n">
-        <v>2183.498949883214</v>
+        <v>2183.498949883215</v>
       </c>
       <c r="N20" t="n">
-        <v>2920.78392780032</v>
+        <v>2920.783927800321</v>
       </c>
       <c r="O20" t="n">
-        <v>3603.645964259458</v>
+        <v>3603.64596425946</v>
       </c>
       <c r="P20" t="n">
-        <v>4151.951912946806</v>
+        <v>4202.751434297606</v>
       </c>
       <c r="Q20" t="n">
-        <v>4515.534099052813</v>
+        <v>4566.333620403613</v>
       </c>
       <c r="R20" t="n">
         <v>4692.417407580351</v>
@@ -5783,19 +5783,19 @@
         <v>4405.740996026519</v>
       </c>
       <c r="U20" t="n">
-        <v>4152.297666746068</v>
+        <v>4152.297666746069</v>
       </c>
       <c r="V20" t="n">
-        <v>3821.234779402497</v>
+        <v>3821.234779402498</v>
       </c>
       <c r="W20" t="n">
-        <v>3468.466124132383</v>
+        <v>3468.466124132384</v>
       </c>
       <c r="X20" t="n">
-        <v>3095.000365871303</v>
+        <v>3095.000365871304</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.861033895493</v>
+        <v>2704.861033895492</v>
       </c>
     </row>
     <row r="21">
@@ -5826,31 +5826,31 @@
         <v>93.84834815160703</v>
       </c>
       <c r="I21" t="n">
-        <v>93.84834815160703</v>
+        <v>94.88738072612962</v>
       </c>
       <c r="J21" t="n">
-        <v>93.84834815160703</v>
+        <v>242.5353624779756</v>
       </c>
       <c r="K21" t="n">
-        <v>93.84834815160703</v>
+        <v>242.5353624779756</v>
       </c>
       <c r="L21" t="n">
-        <v>142.6767696327857</v>
+        <v>733.2676953217269</v>
       </c>
       <c r="M21" t="n">
-        <v>734.6951238849133</v>
+        <v>733.2676953217269</v>
       </c>
       <c r="N21" t="n">
-        <v>1356.791087284249</v>
+        <v>1355.363658721063</v>
       </c>
       <c r="O21" t="n">
-        <v>1903.667562284444</v>
+        <v>1868.341358050533</v>
       </c>
       <c r="P21" t="n">
-        <v>2323.25108071052</v>
+        <v>2287.924876476609</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.812354695766</v>
+        <v>2518.486150461856</v>
       </c>
       <c r="R21" t="n">
         <v>2553.812354695766</v>
@@ -5884,19 +5884,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>654.5023284669179</v>
+        <v>637.4047730538324</v>
       </c>
       <c r="C22" t="n">
-        <v>485.566145539011</v>
+        <v>468.4685901259255</v>
       </c>
       <c r="D22" t="n">
-        <v>485.566145539011</v>
+        <v>318.3519507135898</v>
       </c>
       <c r="E22" t="n">
-        <v>485.566145539011</v>
+        <v>318.3519507135898</v>
       </c>
       <c r="F22" t="n">
-        <v>485.566145539011</v>
+        <v>318.3519507135898</v>
       </c>
       <c r="G22" t="n">
         <v>318.3519507135898</v>
@@ -5932,28 +5932,28 @@
         <v>2429.412499335695</v>
       </c>
       <c r="R22" t="n">
-        <v>2429.412499335695</v>
+        <v>2361.553154294196</v>
       </c>
       <c r="S22" t="n">
-        <v>2337.789577552444</v>
+        <v>2178.382964033126</v>
       </c>
       <c r="T22" t="n">
-        <v>2118.110795266826</v>
+        <v>1958.704181747508</v>
       </c>
       <c r="U22" t="n">
-        <v>1829.034581581553</v>
+        <v>1669.627968062235</v>
       </c>
       <c r="V22" t="n">
-        <v>1574.350093375666</v>
+        <v>1414.943479856348</v>
       </c>
       <c r="W22" t="n">
-        <v>1284.932923338705</v>
+        <v>1267.835367925619</v>
       </c>
       <c r="X22" t="n">
-        <v>1056.943372440688</v>
+        <v>1039.845817027602</v>
       </c>
       <c r="Y22" t="n">
-        <v>836.1507932971576</v>
+        <v>819.0532378840721</v>
       </c>
     </row>
     <row r="23">
@@ -5987,28 +5987,28 @@
         <v>93.84834815160703</v>
       </c>
       <c r="J23" t="n">
-        <v>373.3442236507199</v>
+        <v>373.34422365072</v>
       </c>
       <c r="K23" t="n">
-        <v>842.9746074384018</v>
+        <v>842.974607438402</v>
       </c>
       <c r="L23" t="n">
-        <v>1462.494387944176</v>
+        <v>1462.494387944177</v>
       </c>
       <c r="M23" t="n">
-        <v>2183.498949883214</v>
+        <v>2183.498949883215</v>
       </c>
       <c r="N23" t="n">
-        <v>2920.78392780032</v>
+        <v>2920.783927800321</v>
       </c>
       <c r="O23" t="n">
-        <v>3603.645964259458</v>
+        <v>3654.445485610258</v>
       </c>
       <c r="P23" t="n">
-        <v>4151.951912946806</v>
+        <v>4202.751434297606</v>
       </c>
       <c r="Q23" t="n">
-        <v>4515.534099052813</v>
+        <v>4566.333620403613</v>
       </c>
       <c r="R23" t="n">
         <v>4692.417407580351</v>
@@ -6069,25 +6069,25 @@
         <v>93.84834815160703</v>
       </c>
       <c r="K24" t="n">
-        <v>93.84834815160703</v>
+        <v>424.3570907149658</v>
       </c>
       <c r="L24" t="n">
-        <v>107.3505653988756</v>
+        <v>915.0894235587172</v>
       </c>
       <c r="M24" t="n">
-        <v>699.3689196510031</v>
+        <v>1154.278642310989</v>
       </c>
       <c r="N24" t="n">
-        <v>1321.464883050339</v>
+        <v>1776.374605710325</v>
       </c>
       <c r="O24" t="n">
-        <v>1868.341358050533</v>
+        <v>2323.251080710519</v>
       </c>
       <c r="P24" t="n">
-        <v>2287.924876476609</v>
+        <v>2323.251080710519</v>
       </c>
       <c r="Q24" t="n">
-        <v>2518.486150461856</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="R24" t="n">
         <v>2553.812354695766</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>571.8714428665047</v>
+        <v>495.0957149476001</v>
       </c>
       <c r="C25" t="n">
-        <v>402.9352599385978</v>
+        <v>485.5661455390109</v>
       </c>
       <c r="D25" t="n">
-        <v>402.9352599385978</v>
+        <v>485.5661455390109</v>
       </c>
       <c r="E25" t="n">
-        <v>402.9352599385978</v>
+        <v>485.5661455390109</v>
       </c>
       <c r="F25" t="n">
-        <v>402.9352599385978</v>
+        <v>485.5661455390109</v>
       </c>
       <c r="G25" t="n">
-        <v>235.7210651131766</v>
+        <v>318.3519507135898</v>
       </c>
       <c r="H25" t="n">
-        <v>93.84834815160703</v>
+        <v>176.4792337520202</v>
       </c>
       <c r="I25" t="n">
         <v>93.84834815160703</v>
@@ -6175,22 +6175,22 @@
         <v>2178.382964033126</v>
       </c>
       <c r="T25" t="n">
-        <v>2035.479909666413</v>
+        <v>1958.704181747508</v>
       </c>
       <c r="U25" t="n">
-        <v>1746.403695981139</v>
+        <v>1669.627968062235</v>
       </c>
       <c r="V25" t="n">
-        <v>1491.719207775252</v>
+        <v>1414.943479856348</v>
       </c>
       <c r="W25" t="n">
-        <v>1202.302037738292</v>
+        <v>1125.526309819387</v>
       </c>
       <c r="X25" t="n">
-        <v>974.3124868402746</v>
+        <v>897.5367589213699</v>
       </c>
       <c r="Y25" t="n">
-        <v>753.5199076967444</v>
+        <v>676.7441797778398</v>
       </c>
     </row>
     <row r="26">
@@ -6212,10 +6212,10 @@
         <v>1205.244725685964</v>
       </c>
       <c r="F26" t="n">
-        <v>794.2588208963562</v>
+        <v>794.2588208963566</v>
       </c>
       <c r="G26" t="n">
-        <v>380.2757138127627</v>
+        <v>380.2757138127629</v>
       </c>
       <c r="H26" t="n">
         <v>93.84834815160703</v>
@@ -6224,28 +6224,28 @@
         <v>93.84834815160703</v>
       </c>
       <c r="J26" t="n">
-        <v>373.3442236507199</v>
+        <v>373.34422365072</v>
       </c>
       <c r="K26" t="n">
-        <v>842.9746074384018</v>
+        <v>842.974607438402</v>
       </c>
       <c r="L26" t="n">
-        <v>1462.494387944176</v>
+        <v>1462.494387944177</v>
       </c>
       <c r="M26" t="n">
-        <v>2183.498949883214</v>
+        <v>2183.498949883215</v>
       </c>
       <c r="N26" t="n">
-        <v>2920.78392780032</v>
+        <v>2920.783927800321</v>
       </c>
       <c r="O26" t="n">
-        <v>3603.645964259458</v>
+        <v>3603.64596425946</v>
       </c>
       <c r="P26" t="n">
-        <v>4151.951912946806</v>
+        <v>4151.951912946808</v>
       </c>
       <c r="Q26" t="n">
-        <v>4515.534099052813</v>
+        <v>4566.333620403613</v>
       </c>
       <c r="R26" t="n">
         <v>4692.417407580351</v>
@@ -6300,31 +6300,31 @@
         <v>93.84834815160703</v>
       </c>
       <c r="I27" t="n">
-        <v>94.88738072612961</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J27" t="n">
-        <v>242.5353624779755</v>
+        <v>241.496329903453</v>
       </c>
       <c r="K27" t="n">
-        <v>573.0441050413342</v>
+        <v>572.0050724668117</v>
       </c>
       <c r="L27" t="n">
-        <v>1063.776437885085</v>
+        <v>1062.737405310563</v>
       </c>
       <c r="M27" t="n">
-        <v>1655.794792137213</v>
+        <v>1062.737405310563</v>
       </c>
       <c r="N27" t="n">
-        <v>2277.890755536549</v>
+        <v>1321.464883050339</v>
       </c>
       <c r="O27" t="n">
-        <v>2553.812354695766</v>
+        <v>1868.341358050533</v>
       </c>
       <c r="P27" t="n">
-        <v>2553.812354695766</v>
+        <v>2287.924876476609</v>
       </c>
       <c r="Q27" t="n">
-        <v>2553.812354695766</v>
+        <v>2518.486150461856</v>
       </c>
       <c r="R27" t="n">
         <v>2553.812354695766</v>
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>562.9550599890988</v>
+        <v>728.0284588996639</v>
       </c>
       <c r="C28" t="n">
-        <v>562.9550599890988</v>
+        <v>559.092275971757</v>
       </c>
       <c r="D28" t="n">
-        <v>562.9550599890988</v>
+        <v>408.9756365594213</v>
       </c>
       <c r="E28" t="n">
-        <v>562.9550599890988</v>
+        <v>261.0625429770282</v>
       </c>
       <c r="F28" t="n">
-        <v>416.0651124911884</v>
+        <v>261.0625429770282</v>
       </c>
       <c r="G28" t="n">
-        <v>248.8509176657673</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="H28" t="n">
-        <v>106.9782007041977</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I28" t="n">
         <v>93.84834815160703</v>
@@ -6406,28 +6406,28 @@
         <v>2429.412499335695</v>
       </c>
       <c r="R28" t="n">
-        <v>2429.412499335695</v>
+        <v>2361.553154294196</v>
       </c>
       <c r="S28" t="n">
-        <v>2246.242309074625</v>
+        <v>2178.382964033126</v>
       </c>
       <c r="T28" t="n">
-        <v>2026.563526789007</v>
+        <v>1958.704181747508</v>
       </c>
       <c r="U28" t="n">
-        <v>1737.487313103734</v>
+        <v>1902.560712014299</v>
       </c>
       <c r="V28" t="n">
-        <v>1482.802824897847</v>
+        <v>1647.876223808412</v>
       </c>
       <c r="W28" t="n">
-        <v>1193.385654860886</v>
+        <v>1358.459053771451</v>
       </c>
       <c r="X28" t="n">
-        <v>965.3961039628687</v>
+        <v>1130.469502873434</v>
       </c>
       <c r="Y28" t="n">
-        <v>744.6035248193385</v>
+        <v>909.6769237299036</v>
       </c>
     </row>
     <row r="29">
@@ -6437,10 +6437,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2318.26119383137</v>
+        <v>2318.261193831369</v>
       </c>
       <c r="C29" t="n">
-        <v>1949.298676890959</v>
+        <v>1949.298676890958</v>
       </c>
       <c r="D29" t="n">
         <v>1591.032978284208</v>
@@ -6452,61 +6452,61 @@
         <v>794.2588208963566</v>
       </c>
       <c r="G29" t="n">
-        <v>380.275713812763</v>
+        <v>380.2757138127627</v>
       </c>
       <c r="H29" t="n">
-        <v>93.84834815160704</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I29" t="n">
-        <v>93.84834815160704</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J29" t="n">
         <v>373.34422365072</v>
       </c>
       <c r="K29" t="n">
-        <v>842.9746074384018</v>
+        <v>842.974607438402</v>
       </c>
       <c r="L29" t="n">
-        <v>1462.494387944176</v>
+        <v>1462.494387944177</v>
       </c>
       <c r="M29" t="n">
-        <v>2183.498949883214</v>
+        <v>2234.298471234014</v>
       </c>
       <c r="N29" t="n">
-        <v>2920.78392780032</v>
+        <v>2971.58344915112</v>
       </c>
       <c r="O29" t="n">
-        <v>3603.645964259458</v>
+        <v>3654.445485610258</v>
       </c>
       <c r="P29" t="n">
-        <v>4151.951912946806</v>
+        <v>4202.751434297606</v>
       </c>
       <c r="Q29" t="n">
-        <v>4515.534099052813</v>
+        <v>4566.333620403613</v>
       </c>
       <c r="R29" t="n">
-        <v>4692.417407580352</v>
+        <v>4692.417407580351</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.950144347201</v>
+        <v>4606.9501443472</v>
       </c>
       <c r="T29" t="n">
         <v>4405.740996026519</v>
       </c>
       <c r="U29" t="n">
-        <v>4152.297666746069</v>
+        <v>4152.297666746068</v>
       </c>
       <c r="V29" t="n">
-        <v>3821.234779402498</v>
+        <v>3821.234779402497</v>
       </c>
       <c r="W29" t="n">
-        <v>3468.466124132384</v>
+        <v>3468.466124132383</v>
       </c>
       <c r="X29" t="n">
-        <v>3095.000365871304</v>
+        <v>3095.000365871303</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.861033895492</v>
+        <v>2704.861033895491</v>
       </c>
     </row>
     <row r="30">
@@ -6534,34 +6534,34 @@
         <v>178.7211392683894</v>
       </c>
       <c r="H30" t="n">
-        <v>93.84834815160704</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I30" t="n">
         <v>94.88738072612962</v>
       </c>
       <c r="J30" t="n">
-        <v>242.5353624779755</v>
+        <v>242.5353624779756</v>
       </c>
       <c r="K30" t="n">
-        <v>573.0441050413342</v>
+        <v>573.0441050413344</v>
       </c>
       <c r="L30" t="n">
-        <v>1063.776437885085</v>
+        <v>1063.776437885086</v>
       </c>
       <c r="M30" t="n">
-        <v>1655.794792137213</v>
+        <v>1063.776437885086</v>
       </c>
       <c r="N30" t="n">
-        <v>2277.890755536549</v>
+        <v>1685.872401284422</v>
       </c>
       <c r="O30" t="n">
-        <v>2553.812354695766</v>
+        <v>1868.341358050533</v>
       </c>
       <c r="P30" t="n">
-        <v>2553.812354695766</v>
+        <v>2287.924876476609</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.812354695766</v>
+        <v>2518.486150461856</v>
       </c>
       <c r="R30" t="n">
         <v>2553.812354695766</v>
@@ -6598,25 +6598,25 @@
         <v>495.0957149476001</v>
       </c>
       <c r="C31" t="n">
-        <v>402.9352599385978</v>
+        <v>495.0957149476001</v>
       </c>
       <c r="D31" t="n">
-        <v>402.9352599385978</v>
+        <v>495.0957149476001</v>
       </c>
       <c r="E31" t="n">
-        <v>402.9352599385978</v>
+        <v>347.182621365207</v>
       </c>
       <c r="F31" t="n">
-        <v>402.9352599385978</v>
+        <v>261.0625429770282</v>
       </c>
       <c r="G31" t="n">
-        <v>235.7210651131766</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="H31" t="n">
-        <v>93.84834815160704</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I31" t="n">
-        <v>93.84834815160704</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J31" t="n">
         <v>172.8304710411609</v>
@@ -6674,7 +6674,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2318.26119383137</v>
+        <v>2318.261193831371</v>
       </c>
       <c r="C32" t="n">
         <v>1949.298676890959</v>
@@ -6686,7 +6686,7 @@
         <v>1205.244725685964</v>
       </c>
       <c r="F32" t="n">
-        <v>794.2588208963564</v>
+        <v>794.2588208963565</v>
       </c>
       <c r="G32" t="n">
         <v>380.2757138127629</v>
@@ -6698,43 +6698,43 @@
         <v>93.84834815160703</v>
       </c>
       <c r="J32" t="n">
-        <v>373.3442236507199</v>
+        <v>373.34422365072</v>
       </c>
       <c r="K32" t="n">
-        <v>842.9746074384018</v>
+        <v>842.974607438402</v>
       </c>
       <c r="L32" t="n">
-        <v>1462.494387944176</v>
+        <v>1462.494387944177</v>
       </c>
       <c r="M32" t="n">
-        <v>2183.498949883214</v>
+        <v>2183.498949883215</v>
       </c>
       <c r="N32" t="n">
-        <v>2971.58344915112</v>
+        <v>2920.783927800321</v>
       </c>
       <c r="O32" t="n">
-        <v>3654.445485610258</v>
+        <v>3603.64596425946</v>
       </c>
       <c r="P32" t="n">
-        <v>4202.751434297606</v>
+        <v>4151.951912946808</v>
       </c>
       <c r="Q32" t="n">
-        <v>4566.333620403613</v>
+        <v>4515.534099052815</v>
       </c>
       <c r="R32" t="n">
         <v>4692.417407580351</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.950144347201</v>
+        <v>4606.9501443472</v>
       </c>
       <c r="T32" t="n">
         <v>4405.740996026519</v>
       </c>
       <c r="U32" t="n">
-        <v>4152.297666746069</v>
+        <v>4152.297666746068</v>
       </c>
       <c r="V32" t="n">
-        <v>3821.234779402498</v>
+        <v>3821.234779402497</v>
       </c>
       <c r="W32" t="n">
         <v>3468.466124132384</v>
@@ -6743,7 +6743,7 @@
         <v>3095.000365871304</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.861033895492</v>
+        <v>2704.861033895493</v>
       </c>
     </row>
     <row r="33">
@@ -6774,31 +6774,31 @@
         <v>93.84834815160703</v>
       </c>
       <c r="I33" t="n">
-        <v>93.84834815160703</v>
+        <v>94.88738072612962</v>
       </c>
       <c r="J33" t="n">
-        <v>93.84834815160703</v>
+        <v>94.88738072612962</v>
       </c>
       <c r="K33" t="n">
-        <v>93.84834815160703</v>
+        <v>425.3961232894884</v>
       </c>
       <c r="L33" t="n">
-        <v>142.6767696327857</v>
+        <v>916.1284561332398</v>
       </c>
       <c r="M33" t="n">
-        <v>734.6951238849133</v>
+        <v>1508.146810385368</v>
       </c>
       <c r="N33" t="n">
-        <v>1356.791087284249</v>
+        <v>1868.341358050533</v>
       </c>
       <c r="O33" t="n">
-        <v>1903.667562284444</v>
+        <v>1868.341358050533</v>
       </c>
       <c r="P33" t="n">
-        <v>2323.25108071052</v>
+        <v>2287.924876476609</v>
       </c>
       <c r="Q33" t="n">
-        <v>2553.812354695766</v>
+        <v>2518.486150461856</v>
       </c>
       <c r="R33" t="n">
         <v>2553.812354695766</v>
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>562.9550599890988</v>
+        <v>549.8252074365081</v>
       </c>
       <c r="C34" t="n">
-        <v>559.092275971757</v>
+        <v>549.8252074365081</v>
       </c>
       <c r="D34" t="n">
-        <v>408.9756365594213</v>
+        <v>549.8252074365081</v>
       </c>
       <c r="E34" t="n">
-        <v>261.0625429770282</v>
+        <v>549.8252074365081</v>
       </c>
       <c r="F34" t="n">
-        <v>261.0625429770282</v>
+        <v>402.9352599385978</v>
       </c>
       <c r="G34" t="n">
-        <v>93.84834815160703</v>
+        <v>235.7210651131766</v>
       </c>
       <c r="H34" t="n">
         <v>93.84834815160703</v>
@@ -6880,28 +6880,28 @@
         <v>2429.412499335695</v>
       </c>
       <c r="R34" t="n">
-        <v>2429.412499335695</v>
+        <v>2361.553154294196</v>
       </c>
       <c r="S34" t="n">
-        <v>2246.242309074625</v>
+        <v>2178.382964033126</v>
       </c>
       <c r="T34" t="n">
-        <v>2026.563526789007</v>
+        <v>1958.704181747508</v>
       </c>
       <c r="U34" t="n">
-        <v>1737.487313103734</v>
+        <v>1669.627968062235</v>
       </c>
       <c r="V34" t="n">
-        <v>1482.802824897847</v>
+        <v>1414.943479856348</v>
       </c>
       <c r="W34" t="n">
-        <v>1193.385654860886</v>
+        <v>1125.526309819387</v>
       </c>
       <c r="X34" t="n">
-        <v>965.3961039628687</v>
+        <v>952.266251410278</v>
       </c>
       <c r="Y34" t="n">
-        <v>744.6035248193385</v>
+        <v>731.4736722667478</v>
       </c>
     </row>
     <row r="35">
@@ -6917,13 +6917,13 @@
         <v>1949.298676890958</v>
       </c>
       <c r="D35" t="n">
-        <v>1591.032978284207</v>
+        <v>1591.032978284208</v>
       </c>
       <c r="E35" t="n">
-        <v>1205.244725685963</v>
+        <v>1205.244725685964</v>
       </c>
       <c r="F35" t="n">
-        <v>794.2588208963555</v>
+        <v>794.2588208963562</v>
       </c>
       <c r="G35" t="n">
         <v>380.2757138127629</v>
@@ -6935,25 +6935,25 @@
         <v>93.84834815160703</v>
       </c>
       <c r="J35" t="n">
-        <v>373.3442236507199</v>
+        <v>373.34422365072</v>
       </c>
       <c r="K35" t="n">
-        <v>842.9746074384018</v>
+        <v>842.974607438402</v>
       </c>
       <c r="L35" t="n">
-        <v>1462.494387944176</v>
+        <v>1462.494387944177</v>
       </c>
       <c r="M35" t="n">
-        <v>2183.498949883214</v>
+        <v>2183.498949883215</v>
       </c>
       <c r="N35" t="n">
-        <v>2920.78392780032</v>
+        <v>2920.783927800321</v>
       </c>
       <c r="O35" t="n">
-        <v>3603.645964259458</v>
+        <v>3603.64596425946</v>
       </c>
       <c r="P35" t="n">
-        <v>4151.951912946806</v>
+        <v>4202.751434297606</v>
       </c>
       <c r="Q35" t="n">
         <v>4566.333620403613</v>
@@ -7011,25 +7011,25 @@
         <v>93.84834815160703</v>
       </c>
       <c r="I36" t="n">
-        <v>93.84834815160703</v>
+        <v>94.88738072612962</v>
       </c>
       <c r="J36" t="n">
-        <v>93.84834815160703</v>
+        <v>94.88738072612962</v>
       </c>
       <c r="K36" t="n">
-        <v>93.84834815160703</v>
+        <v>94.88738072612962</v>
       </c>
       <c r="L36" t="n">
-        <v>107.3505653988756</v>
+        <v>526.9340838249508</v>
       </c>
       <c r="M36" t="n">
-        <v>699.3689196510031</v>
+        <v>1118.952438077079</v>
       </c>
       <c r="N36" t="n">
-        <v>1321.464883050339</v>
+        <v>1741.048401476415</v>
       </c>
       <c r="O36" t="n">
-        <v>1868.341358050533</v>
+        <v>2287.924876476609</v>
       </c>
       <c r="P36" t="n">
         <v>2287.924876476609</v>
@@ -7069,25 +7069,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1016.791123359144</v>
+        <v>662.7462509176839</v>
       </c>
       <c r="C37" t="n">
-        <v>847.854940431237</v>
+        <v>493.8100679897771</v>
       </c>
       <c r="D37" t="n">
-        <v>697.7383010189012</v>
+        <v>343.6934285774413</v>
       </c>
       <c r="E37" t="n">
-        <v>549.8252074365081</v>
+        <v>343.6934285774413</v>
       </c>
       <c r="F37" t="n">
-        <v>402.9352599385978</v>
+        <v>343.6934285774413</v>
       </c>
       <c r="G37" t="n">
-        <v>235.7210651131766</v>
+        <v>176.4792337520202</v>
       </c>
       <c r="H37" t="n">
-        <v>93.84834815160703</v>
+        <v>176.4792337520202</v>
       </c>
       <c r="I37" t="n">
         <v>93.84834815160703</v>
@@ -7120,25 +7120,25 @@
         <v>2361.553154294196</v>
       </c>
       <c r="S37" t="n">
-        <v>2263.745419408543</v>
+        <v>2178.382964033126</v>
       </c>
       <c r="T37" t="n">
-        <v>2044.066637122925</v>
+        <v>1958.704181747508</v>
       </c>
       <c r="U37" t="n">
-        <v>1754.990423437652</v>
+        <v>1669.627968062235</v>
       </c>
       <c r="V37" t="n">
-        <v>1754.990423437652</v>
+        <v>1414.943479856348</v>
       </c>
       <c r="W37" t="n">
-        <v>1465.573253400691</v>
+        <v>1125.526309819387</v>
       </c>
       <c r="X37" t="n">
-        <v>1237.583702502674</v>
+        <v>1065.187294891454</v>
       </c>
       <c r="Y37" t="n">
-        <v>1016.791123359144</v>
+        <v>844.3947157479237</v>
       </c>
     </row>
     <row r="38">
@@ -7148,16 +7148,16 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2318.261193831369</v>
+        <v>2318.26119383137</v>
       </c>
       <c r="C38" t="n">
-        <v>1949.298676890958</v>
+        <v>1949.298676890959</v>
       </c>
       <c r="D38" t="n">
-        <v>1591.032978284207</v>
+        <v>1591.032978284208</v>
       </c>
       <c r="E38" t="n">
-        <v>1205.244725685963</v>
+        <v>1205.244725685964</v>
       </c>
       <c r="F38" t="n">
         <v>794.2588208963565</v>
@@ -7172,22 +7172,22 @@
         <v>93.84834815160703</v>
       </c>
       <c r="J38" t="n">
-        <v>424.14374500152</v>
+        <v>373.34422365072</v>
       </c>
       <c r="K38" t="n">
-        <v>893.7741287892018</v>
+        <v>842.974607438402</v>
       </c>
       <c r="L38" t="n">
-        <v>1513.293909294976</v>
+        <v>1462.494387944177</v>
       </c>
       <c r="M38" t="n">
-        <v>2234.298471234014</v>
+        <v>2183.498949883215</v>
       </c>
       <c r="N38" t="n">
-        <v>2971.58344915112</v>
+        <v>2920.783927800321</v>
       </c>
       <c r="O38" t="n">
-        <v>3654.445485610258</v>
+        <v>3603.64596425946</v>
       </c>
       <c r="P38" t="n">
         <v>4202.751434297606</v>
@@ -7217,7 +7217,7 @@
         <v>3095.000365871303</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.861033895491</v>
+        <v>2704.861033895492</v>
       </c>
     </row>
     <row r="39">
@@ -7254,25 +7254,25 @@
         <v>93.84834815160703</v>
       </c>
       <c r="K39" t="n">
-        <v>302.0892292003572</v>
+        <v>424.3570907149658</v>
       </c>
       <c r="L39" t="n">
-        <v>792.8215620441084</v>
+        <v>424.3570907149658</v>
       </c>
       <c r="M39" t="n">
-        <v>1384.839916296236</v>
+        <v>1016.375444967094</v>
       </c>
       <c r="N39" t="n">
-        <v>2006.935879695572</v>
+        <v>1321.464883050339</v>
       </c>
       <c r="O39" t="n">
-        <v>2553.812354695766</v>
+        <v>1868.341358050533</v>
       </c>
       <c r="P39" t="n">
-        <v>2553.812354695766</v>
+        <v>2287.924876476609</v>
       </c>
       <c r="Q39" t="n">
-        <v>2553.812354695766</v>
+        <v>2518.486150461856</v>
       </c>
       <c r="R39" t="n">
         <v>2553.812354695766</v>
@@ -7306,25 +7306,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>495.0957149476001</v>
+        <v>637.4047730538324</v>
       </c>
       <c r="C40" t="n">
-        <v>402.9352599385978</v>
+        <v>468.4685901259255</v>
       </c>
       <c r="D40" t="n">
-        <v>402.9352599385978</v>
+        <v>318.3519507135898</v>
       </c>
       <c r="E40" t="n">
-        <v>402.9352599385978</v>
+        <v>318.3519507135898</v>
       </c>
       <c r="F40" t="n">
-        <v>402.9352599385978</v>
+        <v>318.3519507135898</v>
       </c>
       <c r="G40" t="n">
-        <v>235.7210651131766</v>
+        <v>318.3519507135898</v>
       </c>
       <c r="H40" t="n">
-        <v>93.84834815160703</v>
+        <v>176.4792337520202</v>
       </c>
       <c r="I40" t="n">
         <v>93.84834815160703</v>
@@ -7372,10 +7372,10 @@
         <v>1125.526309819387</v>
       </c>
       <c r="X40" t="n">
-        <v>897.5367589213699</v>
+        <v>1039.845817027602</v>
       </c>
       <c r="Y40" t="n">
-        <v>676.7441797778398</v>
+        <v>819.0532378840721</v>
       </c>
     </row>
     <row r="41">
@@ -7388,7 +7388,7 @@
         <v>2318.26119383137</v>
       </c>
       <c r="C41" t="n">
-        <v>1949.298676890958</v>
+        <v>1949.298676890959</v>
       </c>
       <c r="D41" t="n">
         <v>1591.032978284208</v>
@@ -7397,64 +7397,64 @@
         <v>1205.244725685964</v>
       </c>
       <c r="F41" t="n">
-        <v>794.2588208963565</v>
+        <v>794.2588208963564</v>
       </c>
       <c r="G41" t="n">
         <v>380.2757138127629</v>
       </c>
       <c r="H41" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160701</v>
       </c>
       <c r="I41" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160701</v>
       </c>
       <c r="J41" t="n">
-        <v>373.3442236507199</v>
+        <v>373.34422365072</v>
       </c>
       <c r="K41" t="n">
-        <v>842.9746074384018</v>
+        <v>842.974607438402</v>
       </c>
       <c r="L41" t="n">
-        <v>1462.494387944176</v>
+        <v>1462.494387944177</v>
       </c>
       <c r="M41" t="n">
-        <v>2183.498949883214</v>
+        <v>2183.498949883215</v>
       </c>
       <c r="N41" t="n">
-        <v>2920.78392780032</v>
+        <v>2920.783927800321</v>
       </c>
       <c r="O41" t="n">
-        <v>3603.645964259458</v>
+        <v>3603.64596425946</v>
       </c>
       <c r="P41" t="n">
-        <v>4151.951912946806</v>
+        <v>4151.951912946808</v>
       </c>
       <c r="Q41" t="n">
-        <v>4566.333620403613</v>
+        <v>4515.534099052815</v>
       </c>
       <c r="R41" t="n">
-        <v>4692.417407580351</v>
+        <v>4692.41740758035</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.9501443472</v>
+        <v>4606.950144347199</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.740996026519</v>
+        <v>4405.740996026518</v>
       </c>
       <c r="U41" t="n">
-        <v>4152.297666746068</v>
+        <v>4152.297666746067</v>
       </c>
       <c r="V41" t="n">
         <v>3821.234779402497</v>
       </c>
       <c r="W41" t="n">
-        <v>3468.466124132383</v>
+        <v>3468.466124132382</v>
       </c>
       <c r="X41" t="n">
         <v>3095.000365871303</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.861033895491</v>
+        <v>2704.861033895492</v>
       </c>
     </row>
     <row r="42">
@@ -7482,34 +7482,34 @@
         <v>178.7211392683894</v>
       </c>
       <c r="H42" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160701</v>
       </c>
       <c r="I42" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160701</v>
       </c>
       <c r="J42" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160701</v>
       </c>
       <c r="K42" t="n">
-        <v>302.0892292003572</v>
+        <v>424.3570907149658</v>
       </c>
       <c r="L42" t="n">
-        <v>792.8215620441084</v>
+        <v>915.0894235587172</v>
       </c>
       <c r="M42" t="n">
-        <v>1384.839916296236</v>
+        <v>1507.107777810845</v>
       </c>
       <c r="N42" t="n">
-        <v>2006.935879695572</v>
+        <v>1868.341358050533</v>
       </c>
       <c r="O42" t="n">
-        <v>2553.812354695766</v>
+        <v>1868.341358050533</v>
       </c>
       <c r="P42" t="n">
-        <v>2553.812354695766</v>
+        <v>2287.924876476609</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.812354695766</v>
+        <v>2518.486150461856</v>
       </c>
       <c r="R42" t="n">
         <v>2553.812354695766</v>
@@ -7543,28 +7543,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>562.9550599890988</v>
+        <v>495.0957149476001</v>
       </c>
       <c r="C43" t="n">
-        <v>562.9550599890988</v>
+        <v>495.0957149476001</v>
       </c>
       <c r="D43" t="n">
-        <v>555.8655840573316</v>
+        <v>344.9790755352643</v>
       </c>
       <c r="E43" t="n">
-        <v>407.9524904749385</v>
+        <v>197.0659819528712</v>
       </c>
       <c r="F43" t="n">
-        <v>261.0625429770282</v>
+        <v>176.4792337520201</v>
       </c>
       <c r="G43" t="n">
-        <v>93.84834815160703</v>
+        <v>176.4792337520201</v>
       </c>
       <c r="H43" t="n">
-        <v>93.84834815160703</v>
+        <v>176.4792337520201</v>
       </c>
       <c r="I43" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160701</v>
       </c>
       <c r="J43" t="n">
         <v>172.8304710411609</v>
@@ -7591,28 +7591,28 @@
         <v>2429.412499335695</v>
       </c>
       <c r="R43" t="n">
-        <v>2429.412499335695</v>
+        <v>2361.553154294196</v>
       </c>
       <c r="S43" t="n">
-        <v>2246.242309074625</v>
+        <v>2178.382964033126</v>
       </c>
       <c r="T43" t="n">
-        <v>2026.563526789007</v>
+        <v>1958.704181747508</v>
       </c>
       <c r="U43" t="n">
-        <v>1737.487313103734</v>
+        <v>1669.627968062235</v>
       </c>
       <c r="V43" t="n">
-        <v>1482.802824897847</v>
+        <v>1414.943479856348</v>
       </c>
       <c r="W43" t="n">
-        <v>1193.385654860886</v>
+        <v>1125.526309819387</v>
       </c>
       <c r="X43" t="n">
-        <v>965.3961039628687</v>
+        <v>897.5367589213699</v>
       </c>
       <c r="Y43" t="n">
-        <v>744.6035248193385</v>
+        <v>676.7441797778398</v>
       </c>
     </row>
     <row r="44">
@@ -7622,10 +7622,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2318.261193831369</v>
+        <v>2318.26119383137</v>
       </c>
       <c r="C44" t="n">
-        <v>1949.298676890958</v>
+        <v>1949.298676890959</v>
       </c>
       <c r="D44" t="n">
         <v>1591.032978284208</v>
@@ -7634,10 +7634,10 @@
         <v>1205.244725685964</v>
       </c>
       <c r="F44" t="n">
-        <v>794.2588208963562</v>
+        <v>794.2588208963563</v>
       </c>
       <c r="G44" t="n">
-        <v>380.2757138127627</v>
+        <v>380.2757138127629</v>
       </c>
       <c r="H44" t="n">
         <v>93.84834815160703</v>
@@ -7646,28 +7646,28 @@
         <v>93.84834815160703</v>
       </c>
       <c r="J44" t="n">
-        <v>424.14374500152</v>
+        <v>373.34422365072</v>
       </c>
       <c r="K44" t="n">
-        <v>893.7741287892018</v>
+        <v>842.974607438402</v>
       </c>
       <c r="L44" t="n">
-        <v>1513.293909294976</v>
+        <v>1462.494387944177</v>
       </c>
       <c r="M44" t="n">
-        <v>2234.298471234014</v>
+        <v>2183.498949883215</v>
       </c>
       <c r="N44" t="n">
-        <v>2971.58344915112</v>
+        <v>2920.783927800321</v>
       </c>
       <c r="O44" t="n">
-        <v>3654.445485610258</v>
+        <v>3603.64596425946</v>
       </c>
       <c r="P44" t="n">
-        <v>4202.751434297606</v>
+        <v>4151.951912946808</v>
       </c>
       <c r="Q44" t="n">
-        <v>4566.333620403613</v>
+        <v>4515.534099052815</v>
       </c>
       <c r="R44" t="n">
         <v>4692.417407580351</v>
@@ -7679,19 +7679,19 @@
         <v>4405.740996026519</v>
       </c>
       <c r="U44" t="n">
-        <v>4152.297666746068</v>
+        <v>4152.297666746069</v>
       </c>
       <c r="V44" t="n">
-        <v>3821.234779402497</v>
+        <v>3821.234779402498</v>
       </c>
       <c r="W44" t="n">
-        <v>3468.466124132383</v>
+        <v>3468.466124132384</v>
       </c>
       <c r="X44" t="n">
-        <v>3095.000365871303</v>
+        <v>3095.000365871304</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.861033895491</v>
+        <v>2704.861033895492</v>
       </c>
     </row>
     <row r="45">
@@ -7722,28 +7722,28 @@
         <v>93.84834815160703</v>
       </c>
       <c r="I45" t="n">
-        <v>93.84834815160703</v>
+        <v>94.88738072612962</v>
       </c>
       <c r="J45" t="n">
-        <v>93.84834815160703</v>
+        <v>242.5353624779756</v>
       </c>
       <c r="K45" t="n">
-        <v>93.84834815160703</v>
+        <v>242.5353624779756</v>
       </c>
       <c r="L45" t="n">
-        <v>584.5806809953583</v>
+        <v>242.5353624779756</v>
       </c>
       <c r="M45" t="n">
-        <v>1176.599035247486</v>
+        <v>699.3689196510026</v>
       </c>
       <c r="N45" t="n">
-        <v>1798.694998646822</v>
+        <v>1321.464883050339</v>
       </c>
       <c r="O45" t="n">
-        <v>2345.571473647016</v>
+        <v>1868.341358050533</v>
       </c>
       <c r="P45" t="n">
-        <v>2518.486150461856</v>
+        <v>2287.924876476609</v>
       </c>
       <c r="Q45" t="n">
         <v>2518.486150461856</v>
@@ -7780,25 +7780,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>577.9118194873282</v>
+        <v>495.0957149476001</v>
       </c>
       <c r="C46" t="n">
-        <v>408.9756365594213</v>
+        <v>485.5661455390109</v>
       </c>
       <c r="D46" t="n">
-        <v>408.9756365594213</v>
+        <v>485.5661455390109</v>
       </c>
       <c r="E46" t="n">
-        <v>261.0625429770282</v>
+        <v>485.5661455390109</v>
       </c>
       <c r="F46" t="n">
-        <v>261.0625429770282</v>
+        <v>485.5661455390109</v>
       </c>
       <c r="G46" t="n">
-        <v>93.84834815160703</v>
+        <v>318.3519507135898</v>
       </c>
       <c r="H46" t="n">
-        <v>93.84834815160703</v>
+        <v>176.4792337520202</v>
       </c>
       <c r="I46" t="n">
         <v>93.84834815160703</v>
@@ -7828,28 +7828,28 @@
         <v>2429.412499335695</v>
       </c>
       <c r="R46" t="n">
-        <v>2429.412499335695</v>
+        <v>2361.553154294196</v>
       </c>
       <c r="S46" t="n">
-        <v>2261.199068572854</v>
+        <v>2178.382964033126</v>
       </c>
       <c r="T46" t="n">
-        <v>2041.520286287236</v>
+        <v>1958.704181747508</v>
       </c>
       <c r="U46" t="n">
-        <v>1752.444072601963</v>
+        <v>1669.627968062235</v>
       </c>
       <c r="V46" t="n">
-        <v>1497.759584396076</v>
+        <v>1414.943479856348</v>
       </c>
       <c r="W46" t="n">
-        <v>1208.342414359116</v>
+        <v>1125.526309819387</v>
       </c>
       <c r="X46" t="n">
-        <v>980.3528634610981</v>
+        <v>897.5367589213699</v>
       </c>
       <c r="Y46" t="n">
-        <v>759.5602843175679</v>
+        <v>676.7441797778398</v>
       </c>
     </row>
   </sheetData>
@@ -8058,19 +8058,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>129.8481964236088</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>127.806478742992</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>371.353193072411</v>
+        <v>256.7457850062993</v>
       </c>
       <c r="N3" t="n">
         <v>381.7094952808119</v>
       </c>
       <c r="O3" t="n">
-        <v>393.8623192767295</v>
+        <v>130.8188201934042</v>
       </c>
       <c r="P3" t="n">
         <v>318.4627686399372</v>
@@ -8292,16 +8292,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>122.1609165114202</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>129.8481964236088</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>127.8064787429921</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>392.8337743093848</v>
+        <v>129.5917403577181</v>
       </c>
       <c r="N6" t="n">
         <v>381.709495280812</v>
@@ -8310,10 +8310,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>182.5733142051931</v>
       </c>
       <c r="Q6" t="n">
-        <v>192.5268253278641</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8532,19 +8532,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>193.9211646793667</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>464.4535191168294</v>
+        <v>464.4535191168277</v>
       </c>
       <c r="N9" t="n">
-        <v>57.74759784825854</v>
+        <v>451.6297827178973</v>
       </c>
       <c r="O9" t="n">
-        <v>393.8623192767295</v>
+        <v>70.52420674030087</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
@@ -8687,7 +8687,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>51.31264782909091</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -8708,7 +8708,7 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>51.31264782908892</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -8927,10 +8927,10 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>51.31264782909096</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>51.31264782909045</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
@@ -9161,7 +9161,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>51.31264782909045</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -9176,7 +9176,7 @@
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>51.31264782909113</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
@@ -9416,13 +9416,13 @@
         <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>51.31264782908966</v>
       </c>
       <c r="Q20" t="n">
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>51.31264782909091</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9650,7 +9650,7 @@
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>51.31264782908966</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
@@ -9659,7 +9659,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>51.31264782909091</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9893,10 +9893,10 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>51.31264782908892</v>
       </c>
       <c r="R26" t="n">
-        <v>51.31264782909091</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10118,7 +10118,7 @@
         <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>51.31264782909034</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
@@ -10133,7 +10133,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>51.31264782909182</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10358,7 +10358,7 @@
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>51.31264782909102</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
         <v>0</v>
@@ -10370,7 +10370,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>51.312647829089</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10601,10 +10601,10 @@
         <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>51.31264782908966</v>
       </c>
       <c r="Q35" t="n">
-        <v>51.31264782909085</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -10820,7 +10820,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>51.31264782909091</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -10838,7 +10838,7 @@
         <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>51.31264782908966</v>
       </c>
       <c r="Q38" t="n">
         <v>0</v>
@@ -11078,10 +11078,10 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>51.31264782909085</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>51.31264782908809</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11294,7 +11294,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>51.31264782909091</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -11318,7 +11318,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>51.312647829089</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -23309,7 +23309,7 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>5.400124791776761e-13</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -23416,22 +23416,22 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>157.8125473841246</v>
+        <v>146.8659403797853</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5420528771669</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23650,28 +23650,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>54.44534951487395</v>
       </c>
       <c r="H16" t="n">
-        <v>76.00797063971555</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.80457674440903</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23719,7 +23719,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23890,25 +23890,25 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>157.8125473841246</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.80457674440902</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23953,7 +23953,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>63.35659541391533</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24130,7 +24130,7 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -24139,7 +24139,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5420528771669</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -24172,10 +24172,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>67.18075159108356</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>90.63179579304087</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24187,7 +24187,7 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>140.8859675251698</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24364,7 +24364,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>157.8125473841246</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -24382,7 +24382,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.80457674440903</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24415,7 +24415,7 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>76.00797063971558</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24601,25 +24601,25 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I28" t="n">
-        <v>68.80602271734431</v>
+        <v>81.80457674440902</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,7 +24646,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>67.18075159108356</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24655,7 +24655,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>230.603416512543</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24838,25 +24838,25 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>76.00797063971561</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>60.16217041863425</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I31" t="n">
-        <v>81.80457674440903</v>
+        <v>81.80457674440902</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -25075,25 +25075,25 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>163.4226649214594</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.4539897919539</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.80457674440903</v>
+        <v>81.80457674440902</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,7 +25120,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>67.18075159108356</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25138,7 +25138,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>54.18219756401894</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25166,7 +25166,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>1.023181539494544e-12</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -25309,7 +25309,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -25318,19 +25318,19 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I37" t="n">
-        <v>81.80457674440903</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25360,7 +25360,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>84.50883082166276</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25369,13 +25369,13 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>165.974030610383</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25549,10 +25549,10 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>76.00797063971555</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -25561,13 +25561,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5420528771669</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.80457674440903</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25612,7 +25612,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>140.8859675251699</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25789,22 +25789,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>141.5968918457628</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>125.0401673040887</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5420528771669</v>
       </c>
       <c r="H43" t="n">
         <v>140.4539897919539</v>
       </c>
       <c r="I43" t="n">
-        <v>81.80457674440903</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,7 +25831,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>67.18075159108356</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -26023,13 +26023,13 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>157.8125473841246</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
@@ -26038,10 +26038,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.4539897919539</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.80457674440903</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,10 +26068,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>67.18075159108356</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>14.80719190324709</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>692801.0918926976</v>
+        <v>692801.0918926975</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>692801.0918926976</v>
+        <v>692801.0918926977</v>
       </c>
     </row>
     <row r="7">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>692801.0918926976</v>
+        <v>692801.0918926975</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>692801.0918926976</v>
+        <v>692801.0918926975</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>692801.0918926976</v>
+        <v>692801.0918926975</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>692801.0918926977</v>
+        <v>692801.0918926975</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>692801.0918926976</v>
+        <v>692801.0918926975</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>692801.0918926976</v>
+        <v>692801.0918926975</v>
       </c>
     </row>
   </sheetData>
@@ -26311,13 +26311,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>738937.5928778551</v>
+        <v>738937.5928778549</v>
       </c>
       <c r="C2" t="n">
-        <v>738937.5928778552</v>
+        <v>738937.5928778549</v>
       </c>
       <c r="D2" t="n">
-        <v>738937.5928778551</v>
+        <v>738937.5928778554</v>
       </c>
       <c r="E2" t="n">
         <v>726014.6794067036</v>
@@ -26329,28 +26329,28 @@
         <v>726014.6794067036</v>
       </c>
       <c r="H2" t="n">
-        <v>726014.6794067037</v>
+        <v>726014.6794067034</v>
       </c>
       <c r="I2" t="n">
         <v>726014.6794067036</v>
       </c>
       <c r="J2" t="n">
-        <v>726014.6794067038</v>
+        <v>726014.6794067034</v>
       </c>
       <c r="K2" t="n">
-        <v>726014.6794067039</v>
+        <v>726014.6794067036</v>
       </c>
       <c r="L2" t="n">
         <v>726014.6794067036</v>
       </c>
       <c r="M2" t="n">
+        <v>726014.6794067036</v>
+      </c>
+      <c r="N2" t="n">
+        <v>726014.6794067036</v>
+      </c>
+      <c r="O2" t="n">
         <v>726014.6794067033</v>
-      </c>
-      <c r="N2" t="n">
-        <v>726014.6794067037</v>
-      </c>
-      <c r="O2" t="n">
-        <v>726014.6794067037</v>
       </c>
       <c r="P2" t="n">
         <v>726014.6794067038</v>
@@ -26369,10 +26369,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>143093.1975581094</v>
+        <v>143093.1975581061</v>
       </c>
       <c r="E3" t="n">
-        <v>1209019.537077496</v>
+        <v>1209019.537077499</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26393,10 +26393,10 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>34377.37901658385</v>
+        <v>34377.37901658314</v>
       </c>
       <c r="M3" t="n">
-        <v>192891.9217116886</v>
+        <v>192891.9217116894</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26421,43 +26421,43 @@
         <v>354753.502998367</v>
       </c>
       <c r="D4" t="n">
-        <v>312563.8135151851</v>
+        <v>312563.8135151861</v>
       </c>
       <c r="E4" t="n">
-        <v>7918.140297431711</v>
+        <v>7918.140297431671</v>
       </c>
       <c r="F4" t="n">
-        <v>7918.140297431712</v>
+        <v>7918.140297431753</v>
       </c>
       <c r="G4" t="n">
-        <v>7918.140297431764</v>
+        <v>7918.140297431702</v>
       </c>
       <c r="H4" t="n">
-        <v>7918.140297431773</v>
+        <v>7918.140297431686</v>
       </c>
       <c r="I4" t="n">
-        <v>7918.14029743176</v>
+        <v>7918.140297431735</v>
       </c>
       <c r="J4" t="n">
-        <v>7918.14029743171</v>
+        <v>7918.140297431671</v>
       </c>
       <c r="K4" t="n">
-        <v>7918.140297431729</v>
+        <v>7918.140297431699</v>
       </c>
       <c r="L4" t="n">
-        <v>7918.140297431712</v>
+        <v>7918.140297431673</v>
       </c>
       <c r="M4" t="n">
-        <v>7918.14029743171</v>
+        <v>7918.140297431686</v>
       </c>
       <c r="N4" t="n">
-        <v>7918.140297431757</v>
+        <v>7918.140297431687</v>
       </c>
       <c r="O4" t="n">
-        <v>7918.140297431743</v>
+        <v>7918.140297431654</v>
       </c>
       <c r="P4" t="n">
-        <v>7918.140297431711</v>
+        <v>7918.140297431672</v>
       </c>
     </row>
     <row r="5">
@@ -26473,7 +26473,7 @@
         <v>50134.40740683334</v>
       </c>
       <c r="D5" t="n">
-        <v>60961.29296005024</v>
+        <v>60961.29296004999</v>
       </c>
       <c r="E5" t="n">
         <v>100930.0394572385</v>
@@ -26494,7 +26494,7 @@
         <v>100930.0394572385</v>
       </c>
       <c r="K5" t="n">
-        <v>100930.0394572386</v>
+        <v>100930.0394572385</v>
       </c>
       <c r="L5" t="n">
         <v>100930.0394572385</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>223655.2275977051</v>
+        <v>223655.227597705</v>
       </c>
       <c r="C6" t="n">
-        <v>334049.6824726549</v>
+        <v>334049.6824726546</v>
       </c>
       <c r="D6" t="n">
-        <v>222319.2888445103</v>
+        <v>222319.2888445132</v>
       </c>
       <c r="E6" t="n">
-        <v>-591853.037425463</v>
+        <v>-591888.9344073304</v>
       </c>
       <c r="F6" t="n">
-        <v>617166.4996520334</v>
+        <v>617130.6026701691</v>
       </c>
       <c r="G6" t="n">
-        <v>617166.4996520333</v>
+        <v>617130.602670169</v>
       </c>
       <c r="H6" t="n">
-        <v>617166.4996520334</v>
+        <v>617130.6026701689</v>
       </c>
       <c r="I6" t="n">
-        <v>617166.4996520333</v>
+        <v>617130.602670169</v>
       </c>
       <c r="J6" t="n">
-        <v>548290.8009207837</v>
+        <v>548254.9039389191</v>
       </c>
       <c r="K6" t="n">
-        <v>617166.4996520337</v>
+        <v>617130.602670169</v>
       </c>
       <c r="L6" t="n">
-        <v>582789.1206354494</v>
+        <v>582753.223653586</v>
       </c>
       <c r="M6" t="n">
-        <v>424274.5779403445</v>
+        <v>424238.6809584797</v>
       </c>
       <c r="N6" t="n">
-        <v>617166.4996520334</v>
+        <v>617130.602670169</v>
       </c>
       <c r="O6" t="n">
-        <v>617166.4996520334</v>
+        <v>617130.6026701689</v>
       </c>
       <c r="P6" t="n">
-        <v>617166.4996520336</v>
+        <v>617130.6026701693</v>
       </c>
     </row>
   </sheetData>
@@ -26722,7 +26722,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>4.022529435979809e-14</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26738,10 +26738,10 @@
         <v>23.01338268678938</v>
       </c>
       <c r="C3" t="n">
-        <v>23.01338268678931</v>
+        <v>23.01338268678938</v>
       </c>
       <c r="D3" t="n">
-        <v>140.8305712138803</v>
+        <v>140.8305712138776</v>
       </c>
       <c r="E3" t="n">
         <v>1358.041048716386</v>
@@ -26793,7 +26793,7 @@
         <v>263.2420339516666</v>
       </c>
       <c r="D4" t="n">
-        <v>399.0721465063758</v>
+        <v>399.0721465063727</v>
       </c>
       <c r="E4" t="n">
         <v>1173.104351895088</v>
@@ -26963,10 +26963,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>117.8171885270909</v>
+        <v>117.8171885270882</v>
       </c>
       <c r="E3" t="n">
-        <v>1217.210477502505</v>
+        <v>1217.210477502508</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27015,10 +27015,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>135.8301125547092</v>
+        <v>135.8301125547061</v>
       </c>
       <c r="E4" t="n">
-        <v>774.032205388712</v>
+        <v>774.0322053887151</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27039,10 +27039,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>135.830112554709</v>
+        <v>135.8301125547061</v>
       </c>
       <c r="M4" t="n">
-        <v>774.032205388712</v>
+        <v>774.0322053887151</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27261,10 +27261,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>135.8301125547092</v>
+        <v>135.8301125547061</v>
       </c>
       <c r="M4" t="n">
-        <v>774.032205388712</v>
+        <v>774.0322053887151</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,7 +27376,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>119.491807711814</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -27385,7 +27385,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>118.6883361205952</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
@@ -27397,10 +27397,10 @@
         <v>75.28528753921177</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>206.9091621893709</v>
       </c>
       <c r="J2" t="n">
-        <v>1.228945883138044</v>
+        <v>4.097100052852153</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27427,16 +27427,16 @@
         <v>144.0576027644701</v>
       </c>
       <c r="S2" t="n">
-        <v>206.9118586999128</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>222.6908602868995</v>
+        <v>207.9216202949928</v>
       </c>
       <c r="U2" t="n">
-        <v>251.3382516189322</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>64.51022451846831</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -27455,22 +27455,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>137.2940166796957</v>
+        <v>63.99929614453183</v>
       </c>
       <c r="H3" t="n">
         <v>111.757373777286</v>
@@ -27506,7 +27506,7 @@
         <v>97.08446202703756</v>
       </c>
       <c r="S3" t="n">
-        <v>170.7637213332854</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>199.9652070090748</v>
@@ -27518,10 +27518,10 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>6.558537684445071</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -27600,10 +27600,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>65.87458628206221</v>
       </c>
       <c r="Y4" t="n">
-        <v>58.74958424511985</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27616,7 +27616,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>359.4066076243762</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -27634,10 +27634,10 @@
         <v>338.5273214908784</v>
       </c>
       <c r="I5" t="n">
-        <v>201.2647588413393</v>
+        <v>206.9091621893709</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>4.097100052852153</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -27661,16 +27661,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>144.0576027644702</v>
+        <v>144.0576027644701</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>206.9118586999128</v>
       </c>
       <c r="T5" t="n">
-        <v>222.6908602868995</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.3382516189322</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -27679,7 +27679,7 @@
         <v>85.99893476574641</v>
       </c>
       <c r="X5" t="n">
-        <v>106.4890667268024</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27692,19 +27692,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>57.04794978076988</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
         <v>137.2940166796957</v>
@@ -27740,10 +27740,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>97.08446202703757</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>170.7637213332854</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
         <v>199.9652070090748</v>
@@ -27752,13 +27752,13 @@
         <v>225.9381254702172</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>77.74396906556404</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -27795,10 +27795,10 @@
         <v>154.2024705022108</v>
       </c>
       <c r="J7" t="n">
-        <v>90.42516245839145</v>
+        <v>90.42516245839144</v>
       </c>
       <c r="K7" t="n">
-        <v>17.44799951871617</v>
+        <v>17.44799951871616</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -27816,13 +27816,13 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>82.6870224659892</v>
+        <v>82.68702246598919</v>
       </c>
       <c r="R7" t="n">
         <v>175.4274210366964</v>
       </c>
       <c r="S7" t="n">
-        <v>223.2933741908973</v>
+        <v>63.45830508392231</v>
       </c>
       <c r="T7" t="n">
         <v>227.7682732010226</v>
@@ -27834,7 +27834,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>126.6879292296162</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -27850,28 +27850,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>5.136716420073867</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>15.66443795865626</v>
       </c>
       <c r="H8" t="n">
-        <v>333.6766871913686</v>
+        <v>333.6766871913687</v>
       </c>
       <c r="I8" t="n">
-        <v>188.6492741061924</v>
+        <v>188.6492741061928</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,13 +27898,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>71.8190955796556</v>
+        <v>114.3055064074261</v>
       </c>
       <c r="S8" t="n">
-        <v>196.1188569569537</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>220.6175145872921</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>251.300360663828</v>
@@ -27913,7 +27913,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -27935,7 +27935,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
         <v>157.6450804554009</v>
@@ -27944,13 +27944,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>137.0405985760713</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>109.3098884080723</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>78.96719903982131</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27977,22 +27977,22 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>81.35030994411775</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>166.056591206755</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>38.02668901721859</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>225.9214532265578</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>81.78743977441601</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
         <v>0</v>
@@ -28026,13 +28026,13 @@
         <v>167.737022590696</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>159.96926597224</v>
       </c>
       <c r="I10" t="n">
-        <v>147.8133023112662</v>
+        <v>147.8133023112664</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>75.40443663584776</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,22 +28053,22 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>64.89662699839846</v>
+        <v>64.89662699839887</v>
       </c>
       <c r="R10" t="n">
-        <v>165.8745716194014</v>
+        <v>165.8745716194016</v>
       </c>
       <c r="S10" t="n">
-        <v>219.5908241842344</v>
+        <v>219.5908241842345</v>
       </c>
       <c r="T10" t="n">
         <v>226.860501420568</v>
       </c>
       <c r="U10" t="n">
-        <v>286.3051771691584</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>221.4357334425314</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -28077,7 +28077,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>136.9512689097233</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28330,7 +28330,7 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-12</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -28570,7 +28570,7 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>1.080024958355352e-12</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -28867,7 +28867,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -30232,7 +30232,7 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>1.023181539494544e-12</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -30463,7 +30463,7 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>7.634720442058159e-13</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -31276,49 +31276,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0.09251611130367554</v>
+        <v>0.09251611130367583</v>
       </c>
       <c r="H5" t="n">
-        <v>0.9474806248887675</v>
+        <v>0.9474806248887704</v>
       </c>
       <c r="I5" t="n">
-        <v>3.566727381034955</v>
+        <v>3.566727381034966</v>
       </c>
       <c r="J5" t="n">
-        <v>7.852189301760339</v>
+        <v>7.852189301760364</v>
       </c>
       <c r="K5" t="n">
-        <v>11.76839629324493</v>
+        <v>11.76839629324496</v>
       </c>
       <c r="L5" t="n">
-        <v>14.59973623455479</v>
+        <v>14.59973623455484</v>
       </c>
       <c r="M5" t="n">
-        <v>16.24501962895153</v>
+        <v>16.24501962895158</v>
       </c>
       <c r="N5" t="n">
-        <v>16.5078810301931</v>
+        <v>16.50788103019315</v>
       </c>
       <c r="O5" t="n">
-        <v>15.58792394841718</v>
+        <v>15.58792394841722</v>
       </c>
       <c r="P5" t="n">
-        <v>13.30393245060768</v>
+        <v>13.30393245060773</v>
       </c>
       <c r="Q5" t="n">
-        <v>9.990699214544799</v>
+        <v>9.990699214544831</v>
       </c>
       <c r="R5" t="n">
-        <v>5.811515176679515</v>
+        <v>5.811515176679532</v>
       </c>
       <c r="S5" t="n">
-        <v>2.108210886332509</v>
+        <v>2.108210886332515</v>
       </c>
       <c r="T5" t="n">
-        <v>0.4049892772318399</v>
+        <v>0.4049892772318412</v>
       </c>
       <c r="U5" t="n">
-        <v>0.007401288904294042</v>
+        <v>0.007401288904294065</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31355,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04950048351498078</v>
+        <v>0.04950048351498094</v>
       </c>
       <c r="H6" t="n">
-        <v>0.4780704592104724</v>
+        <v>0.4780704592104738</v>
       </c>
       <c r="I6" t="n">
-        <v>1.704292963125435</v>
+        <v>1.70429296312544</v>
       </c>
       <c r="J6" t="n">
-        <v>4.676710155246496</v>
+        <v>4.676710155246511</v>
       </c>
       <c r="K6" t="n">
-        <v>7.993242550750209</v>
+        <v>7.993242550750233</v>
       </c>
       <c r="L6" t="n">
-        <v>10.74790103688212</v>
+        <v>10.74790103688215</v>
       </c>
       <c r="M6" t="n">
-        <v>12.54229356430017</v>
+        <v>12.54229356430021</v>
       </c>
       <c r="N6" t="n">
-        <v>12.87425075418792</v>
+        <v>12.87425075418796</v>
       </c>
       <c r="O6" t="n">
-        <v>11.77742425104019</v>
+        <v>11.77742425104022</v>
       </c>
       <c r="P6" t="n">
-        <v>9.452421277522953</v>
+        <v>9.452421277522983</v>
       </c>
       <c r="Q6" t="n">
-        <v>6.31869329921053</v>
+        <v>6.318693299210549</v>
       </c>
       <c r="R6" t="n">
-        <v>3.073372125605562</v>
+        <v>3.073372125605572</v>
       </c>
       <c r="S6" t="n">
-        <v>0.9194497705523836</v>
+        <v>0.9194497705523865</v>
       </c>
       <c r="T6" t="n">
-        <v>0.1995216857467865</v>
+        <v>0.1995216857467871</v>
       </c>
       <c r="U6" t="n">
-        <v>0.003256610757564526</v>
+        <v>0.003256610757564536</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31434,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04149954254994793</v>
+        <v>0.04149954254994806</v>
       </c>
       <c r="H7" t="n">
-        <v>0.368968660125901</v>
+        <v>0.3689686601259021</v>
       </c>
       <c r="I7" t="n">
-        <v>1.248004425047526</v>
+        <v>1.248004425047529</v>
       </c>
       <c r="J7" t="n">
-        <v>2.934017658281319</v>
+        <v>2.934017658281328</v>
       </c>
       <c r="K7" t="n">
-        <v>4.821492307166677</v>
+        <v>4.821492307166691</v>
       </c>
       <c r="L7" t="n">
-        <v>6.169850171471351</v>
+        <v>6.16985017147137</v>
       </c>
       <c r="M7" t="n">
-        <v>6.505241928988656</v>
+        <v>6.505241928988675</v>
       </c>
       <c r="N7" t="n">
-        <v>6.350561815847946</v>
+        <v>6.350561815847965</v>
       </c>
       <c r="O7" t="n">
-        <v>5.865771705150824</v>
+        <v>5.865771705150842</v>
       </c>
       <c r="P7" t="n">
-        <v>5.019181037131882</v>
+        <v>5.019181037131898</v>
       </c>
       <c r="Q7" t="n">
-        <v>3.475020785705186</v>
+        <v>3.475020785705196</v>
       </c>
       <c r="R7" t="n">
-        <v>1.865970340473113</v>
+        <v>1.865970340473119</v>
       </c>
       <c r="S7" t="n">
-        <v>0.7232238460750015</v>
+        <v>0.7232238460750037</v>
       </c>
       <c r="T7" t="n">
-        <v>0.1773162272588684</v>
+        <v>0.1773162272588689</v>
       </c>
       <c r="U7" t="n">
-        <v>0.002263611411815344</v>
+        <v>0.002263611411815351</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0.5661530501060509</v>
+        <v>0.5661530501060401</v>
       </c>
       <c r="H8" t="n">
-        <v>5.798114924398595</v>
+        <v>5.798114924398485</v>
       </c>
       <c r="I8" t="n">
-        <v>21.82661546421355</v>
+        <v>21.82661546421313</v>
       </c>
       <c r="J8" t="n">
-        <v>48.05153243643848</v>
+        <v>48.05153243643757</v>
       </c>
       <c r="K8" t="n">
-        <v>72.01679104742763</v>
+        <v>72.01679104742627</v>
       </c>
       <c r="L8" t="n">
-        <v>89.3431974546107</v>
+        <v>89.34319745460901</v>
       </c>
       <c r="M8" t="n">
-        <v>99.41152175943418</v>
+        <v>99.41152175943229</v>
       </c>
       <c r="N8" t="n">
-        <v>101.020104113048</v>
+        <v>101.0201041130461</v>
       </c>
       <c r="O8" t="n">
-        <v>95.39041972105595</v>
+        <v>95.39041972105414</v>
       </c>
       <c r="P8" t="n">
-        <v>81.4135162965628</v>
+        <v>81.41351629656127</v>
       </c>
       <c r="Q8" t="n">
-        <v>61.13816018963984</v>
+        <v>61.13816018963868</v>
       </c>
       <c r="R8" t="n">
-        <v>35.56361153372425</v>
+        <v>35.56361153372357</v>
       </c>
       <c r="S8" t="n">
-        <v>12.90121262929165</v>
+        <v>12.9012126292914</v>
       </c>
       <c r="T8" t="n">
-        <v>2.478334976839239</v>
+        <v>2.478334976839192</v>
       </c>
       <c r="U8" t="n">
-        <v>0.04529224400848406</v>
+        <v>0.0452922440084832</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.3029185871392897</v>
+        <v>0.3029185871392839</v>
       </c>
       <c r="H9" t="n">
-        <v>2.925555828424192</v>
+        <v>2.925555828424137</v>
       </c>
       <c r="I9" t="n">
-        <v>10.42943381159396</v>
+        <v>10.42943381159377</v>
       </c>
       <c r="J9" t="n">
-        <v>28.61916353319052</v>
+        <v>28.61916353318998</v>
       </c>
       <c r="K9" t="n">
-        <v>48.91470887152293</v>
+        <v>48.914708871522</v>
       </c>
       <c r="L9" t="n">
-        <v>65.77186252776551</v>
+        <v>65.77186252776426</v>
       </c>
       <c r="M9" t="n">
-        <v>76.75266131156474</v>
+        <v>76.75266131156327</v>
       </c>
       <c r="N9" t="n">
-        <v>78.78407587181024</v>
+        <v>78.78407587180875</v>
       </c>
       <c r="O9" t="n">
-        <v>72.07203770414493</v>
+        <v>72.07203770414357</v>
       </c>
       <c r="P9" t="n">
-        <v>57.84416424065962</v>
+        <v>57.84416424065852</v>
       </c>
       <c r="Q9" t="n">
-        <v>38.66729193027143</v>
+        <v>38.6672919302707</v>
       </c>
       <c r="R9" t="n">
-        <v>18.80752420852538</v>
+        <v>18.80752420852502</v>
       </c>
       <c r="S9" t="n">
-        <v>5.626579897082854</v>
+        <v>5.626579897082747</v>
       </c>
       <c r="T9" t="n">
-        <v>1.220974480618452</v>
+        <v>1.220974480618429</v>
       </c>
       <c r="U9" t="n">
-        <v>0.01992885441705854</v>
+        <v>0.01992885441705816</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.2539567677627348</v>
+        <v>0.2539567677627301</v>
       </c>
       <c r="H10" t="n">
-        <v>2.25790653519959</v>
+        <v>2.257906535199547</v>
       </c>
       <c r="I10" t="n">
-        <v>7.637172615992066</v>
+        <v>7.637172615991921</v>
       </c>
       <c r="J10" t="n">
-        <v>17.95474348082535</v>
+        <v>17.95474348082501</v>
       </c>
       <c r="K10" t="n">
-        <v>29.50515901825228</v>
+        <v>29.50515901825172</v>
       </c>
       <c r="L10" t="n">
-        <v>37.75644527265243</v>
+        <v>37.75644527265171</v>
       </c>
       <c r="M10" t="n">
-        <v>39.80887769575306</v>
+        <v>39.80887769575231</v>
       </c>
       <c r="N10" t="n">
-        <v>38.86231156136472</v>
+        <v>38.86231156136398</v>
       </c>
       <c r="O10" t="n">
-        <v>35.89563477431821</v>
+        <v>35.89563477431753</v>
       </c>
       <c r="P10" t="n">
-        <v>30.7149167119584</v>
+        <v>30.71491671195781</v>
       </c>
       <c r="Q10" t="n">
-        <v>21.26541625329592</v>
+        <v>21.26541625329552</v>
       </c>
       <c r="R10" t="n">
-        <v>11.41881975776806</v>
+        <v>11.41881975776784</v>
       </c>
       <c r="S10" t="n">
-        <v>4.425773852737842</v>
+        <v>4.425773852737757</v>
       </c>
       <c r="T10" t="n">
-        <v>1.085088007713503</v>
+        <v>1.085088007713483</v>
       </c>
       <c r="U10" t="n">
-        <v>0.01385218733251283</v>
+        <v>0.01385218733251256</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,46 +31750,46 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.459461502377425</v>
+        <v>5.459461502377426</v>
       </c>
       <c r="H11" t="n">
-        <v>55.91171011122282</v>
+        <v>55.91171011122283</v>
       </c>
       <c r="I11" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J11" t="n">
-        <v>463.3649706874064</v>
+        <v>463.3649706874065</v>
       </c>
       <c r="K11" t="n">
-        <v>694.463976083043</v>
+        <v>694.4639760830431</v>
       </c>
       <c r="L11" t="n">
-        <v>861.5439710364263</v>
+        <v>861.5439710364265</v>
       </c>
       <c r="M11" t="n">
-        <v>958.6336695293307</v>
+        <v>958.633669529331</v>
       </c>
       <c r="N11" t="n">
-        <v>974.1453645229608</v>
+        <v>974.1453645229609</v>
       </c>
       <c r="O11" t="n">
-        <v>919.8578442086952</v>
+        <v>919.8578442086953</v>
       </c>
       <c r="P11" t="n">
-        <v>785.0773883687524</v>
+        <v>785.0773883687525</v>
       </c>
       <c r="Q11" t="n">
-        <v>589.5604233148606</v>
+        <v>589.5604233148607</v>
       </c>
       <c r="R11" t="n">
-        <v>342.9428985987162</v>
+        <v>342.9428985987163</v>
       </c>
       <c r="S11" t="n">
         <v>124.4074789854257</v>
       </c>
       <c r="T11" t="n">
-        <v>23.89879272665719</v>
+        <v>23.8987927266572</v>
       </c>
       <c r="U11" t="n">
         <v>0.436756920190194</v>
@@ -31832,43 +31832,43 @@
         <v>2.921069425540905</v>
       </c>
       <c r="H12" t="n">
-        <v>28.2113810308819</v>
+        <v>28.21138103088191</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>275.9770021735818</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>471.6886536848224</v>
       </c>
       <c r="L12" t="n">
-        <v>420.7661933823242</v>
+        <v>634.2436048745725</v>
       </c>
       <c r="M12" t="n">
-        <v>740.1323715504301</v>
+        <v>327.4956393165978</v>
       </c>
       <c r="N12" t="n">
-        <v>759.7214730927637</v>
+        <v>759.7214730927639</v>
       </c>
       <c r="O12" t="n">
-        <v>694.9967242426204</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
-        <v>557.7961431982453</v>
+        <v>557.7961431982454</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>372.8719498286953</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>181.3625385436714</v>
       </c>
       <c r="S12" t="n">
-        <v>54.2575834086216</v>
+        <v>54.25758340862161</v>
       </c>
       <c r="T12" t="n">
-        <v>11.77395965821092</v>
+        <v>11.77395965821093</v>
       </c>
       <c r="U12" t="n">
         <v>0.1921756201013754</v>
@@ -31914,7 +31914,7 @@
         <v>21.77318271548567</v>
       </c>
       <c r="I13" t="n">
-        <v>73.64589818284925</v>
+        <v>73.64589818284927</v>
       </c>
       <c r="J13" t="n">
         <v>173.1391022273333</v>
@@ -31923,16 +31923,16 @@
         <v>284.5207311900886</v>
       </c>
       <c r="L13" t="n">
-        <v>364.0885788640618</v>
+        <v>364.0885788640619</v>
       </c>
       <c r="M13" t="n">
-        <v>383.8803574265021</v>
+        <v>383.8803574265022</v>
       </c>
       <c r="N13" t="n">
-        <v>374.7525405416874</v>
+        <v>374.7525405416875</v>
       </c>
       <c r="O13" t="n">
-        <v>346.1446266465962</v>
+        <v>346.1446266465963</v>
       </c>
       <c r="P13" t="n">
         <v>296.1865264282424</v>
@@ -31944,7 +31944,7 @@
         <v>110.1126397860859</v>
       </c>
       <c r="S13" t="n">
-        <v>42.67810967851328</v>
+        <v>42.67810967851329</v>
       </c>
       <c r="T13" t="n">
         <v>10.46359496551969</v>
@@ -31987,46 +31987,46 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.459461502377425</v>
+        <v>5.459461502377426</v>
       </c>
       <c r="H14" t="n">
-        <v>55.91171011122282</v>
+        <v>55.91171011122283</v>
       </c>
       <c r="I14" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J14" t="n">
-        <v>463.3649706874064</v>
+        <v>463.3649706874065</v>
       </c>
       <c r="K14" t="n">
-        <v>694.463976083043</v>
+        <v>694.4639760830431</v>
       </c>
       <c r="L14" t="n">
-        <v>861.5439710364263</v>
+        <v>861.5439710364265</v>
       </c>
       <c r="M14" t="n">
-        <v>958.6336695293307</v>
+        <v>958.633669529331</v>
       </c>
       <c r="N14" t="n">
-        <v>974.1453645229608</v>
+        <v>974.1453645229609</v>
       </c>
       <c r="O14" t="n">
-        <v>919.8578442086952</v>
+        <v>919.8578442086953</v>
       </c>
       <c r="P14" t="n">
-        <v>785.0773883687524</v>
+        <v>785.0773883687525</v>
       </c>
       <c r="Q14" t="n">
-        <v>589.5604233148606</v>
+        <v>589.5604233148607</v>
       </c>
       <c r="R14" t="n">
-        <v>342.9428985987162</v>
+        <v>342.9428985987163</v>
       </c>
       <c r="S14" t="n">
         <v>124.4074789854257</v>
       </c>
       <c r="T14" t="n">
-        <v>23.89879272665719</v>
+        <v>23.8987927266572</v>
       </c>
       <c r="U14" t="n">
         <v>0.436756920190194</v>
@@ -32069,31 +32069,31 @@
         <v>2.921069425540905</v>
       </c>
       <c r="H15" t="n">
-        <v>28.2113810308819</v>
+        <v>28.21138103088191</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>275.9770021735818</v>
       </c>
       <c r="K15" t="n">
-        <v>348.1857632660258</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>634.2436048745724</v>
+        <v>271.6268178754087</v>
       </c>
       <c r="M15" t="n">
-        <v>740.1323715504301</v>
+        <v>740.1323715504302</v>
       </c>
       <c r="N15" t="n">
-        <v>759.7214730927637</v>
+        <v>759.7214730927639</v>
       </c>
       <c r="O15" t="n">
-        <v>694.9967242426204</v>
+        <v>694.9967242426205</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>557.7961431982454</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -32102,10 +32102,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.2575834086216</v>
+        <v>54.25758340862161</v>
       </c>
       <c r="T15" t="n">
-        <v>11.77395965821092</v>
+        <v>11.77395965821093</v>
       </c>
       <c r="U15" t="n">
         <v>0.1921756201013754</v>
@@ -32151,7 +32151,7 @@
         <v>21.77318271548567</v>
       </c>
       <c r="I16" t="n">
-        <v>73.64589818284925</v>
+        <v>73.64589818284927</v>
       </c>
       <c r="J16" t="n">
         <v>173.1391022273333</v>
@@ -32160,16 +32160,16 @@
         <v>284.5207311900886</v>
       </c>
       <c r="L16" t="n">
-        <v>364.0885788640618</v>
+        <v>364.0885788640619</v>
       </c>
       <c r="M16" t="n">
-        <v>383.8803574265021</v>
+        <v>383.8803574265022</v>
       </c>
       <c r="N16" t="n">
-        <v>374.7525405416874</v>
+        <v>374.7525405416875</v>
       </c>
       <c r="O16" t="n">
-        <v>346.1446266465962</v>
+        <v>346.1446266465963</v>
       </c>
       <c r="P16" t="n">
         <v>296.1865264282424</v>
@@ -32181,7 +32181,7 @@
         <v>110.1126397860859</v>
       </c>
       <c r="S16" t="n">
-        <v>42.67810967851328</v>
+        <v>42.67810967851329</v>
       </c>
       <c r="T16" t="n">
         <v>10.46359496551969</v>
@@ -32224,46 +32224,46 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.459461502377425</v>
+        <v>5.459461502377426</v>
       </c>
       <c r="H17" t="n">
-        <v>55.91171011122282</v>
+        <v>55.91171011122283</v>
       </c>
       <c r="I17" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J17" t="n">
-        <v>463.3649706874064</v>
+        <v>463.3649706874065</v>
       </c>
       <c r="K17" t="n">
-        <v>694.463976083043</v>
+        <v>694.4639760830431</v>
       </c>
       <c r="L17" t="n">
-        <v>861.5439710364263</v>
+        <v>861.5439710364265</v>
       </c>
       <c r="M17" t="n">
-        <v>958.6336695293307</v>
+        <v>958.633669529331</v>
       </c>
       <c r="N17" t="n">
-        <v>974.1453645229608</v>
+        <v>974.1453645229609</v>
       </c>
       <c r="O17" t="n">
-        <v>919.8578442086952</v>
+        <v>919.8578442086953</v>
       </c>
       <c r="P17" t="n">
-        <v>785.0773883687524</v>
+        <v>785.0773883687525</v>
       </c>
       <c r="Q17" t="n">
-        <v>589.5604233148606</v>
+        <v>589.5604233148607</v>
       </c>
       <c r="R17" t="n">
-        <v>342.9428985987162</v>
+        <v>342.9428985987163</v>
       </c>
       <c r="S17" t="n">
         <v>124.4074789854257</v>
       </c>
       <c r="T17" t="n">
-        <v>23.89879272665719</v>
+        <v>23.8987927266572</v>
       </c>
       <c r="U17" t="n">
         <v>0.436756920190194</v>
@@ -32306,43 +32306,43 @@
         <v>2.921069425540905</v>
       </c>
       <c r="H18" t="n">
-        <v>28.2113810308819</v>
+        <v>28.21138103088191</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>100.5719078530531</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>275.9770021735818</v>
       </c>
       <c r="K18" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>634.2436048745724</v>
+        <v>634.2436048745725</v>
       </c>
       <c r="M18" t="n">
-        <v>740.1323715504301</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N18" t="n">
-        <v>759.7214730927637</v>
+        <v>725.4802855465776</v>
       </c>
       <c r="O18" t="n">
-        <v>694.9967242426204</v>
+        <v>694.9967242426205</v>
       </c>
       <c r="P18" t="n">
-        <v>344.3187317059969</v>
+        <v>557.7961431982454</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>372.8719498286953</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>181.3625385436714</v>
       </c>
       <c r="S18" t="n">
-        <v>54.2575834086216</v>
+        <v>54.25758340862161</v>
       </c>
       <c r="T18" t="n">
-        <v>11.77395965821092</v>
+        <v>11.77395965821093</v>
       </c>
       <c r="U18" t="n">
         <v>0.1921756201013754</v>
@@ -32388,7 +32388,7 @@
         <v>21.77318271548567</v>
       </c>
       <c r="I19" t="n">
-        <v>73.64589818284925</v>
+        <v>73.64589818284927</v>
       </c>
       <c r="J19" t="n">
         <v>173.1391022273333</v>
@@ -32397,16 +32397,16 @@
         <v>284.5207311900886</v>
       </c>
       <c r="L19" t="n">
-        <v>364.0885788640618</v>
+        <v>364.0885788640619</v>
       </c>
       <c r="M19" t="n">
-        <v>383.8803574265021</v>
+        <v>383.8803574265022</v>
       </c>
       <c r="N19" t="n">
-        <v>374.7525405416874</v>
+        <v>374.7525405416875</v>
       </c>
       <c r="O19" t="n">
-        <v>346.1446266465962</v>
+        <v>346.1446266465963</v>
       </c>
       <c r="P19" t="n">
         <v>296.1865264282424</v>
@@ -32418,7 +32418,7 @@
         <v>110.1126397860859</v>
       </c>
       <c r="S19" t="n">
-        <v>42.67810967851328</v>
+        <v>42.67810967851329</v>
       </c>
       <c r="T19" t="n">
         <v>10.46359496551969</v>
@@ -32461,46 +32461,46 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.459461502377425</v>
+        <v>5.459461502377426</v>
       </c>
       <c r="H20" t="n">
-        <v>55.91171011122282</v>
+        <v>55.91171011122283</v>
       </c>
       <c r="I20" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J20" t="n">
-        <v>463.3649706874064</v>
+        <v>463.3649706874065</v>
       </c>
       <c r="K20" t="n">
-        <v>694.463976083043</v>
+        <v>694.4639760830431</v>
       </c>
       <c r="L20" t="n">
-        <v>861.5439710364263</v>
+        <v>861.5439710364265</v>
       </c>
       <c r="M20" t="n">
-        <v>958.6336695293307</v>
+        <v>958.633669529331</v>
       </c>
       <c r="N20" t="n">
-        <v>974.1453645229608</v>
+        <v>974.1453645229609</v>
       </c>
       <c r="O20" t="n">
-        <v>919.8578442086952</v>
+        <v>919.8578442086953</v>
       </c>
       <c r="P20" t="n">
-        <v>785.0773883687524</v>
+        <v>785.0773883687525</v>
       </c>
       <c r="Q20" t="n">
-        <v>589.5604233148606</v>
+        <v>589.5604233148607</v>
       </c>
       <c r="R20" t="n">
-        <v>342.9428985987162</v>
+        <v>342.9428985987163</v>
       </c>
       <c r="S20" t="n">
         <v>124.4074789854257</v>
       </c>
       <c r="T20" t="n">
-        <v>23.89879272665719</v>
+        <v>23.8987927266572</v>
       </c>
       <c r="U20" t="n">
         <v>0.436756920190194</v>
@@ -32543,43 +32543,43 @@
         <v>2.921069425540905</v>
       </c>
       <c r="H21" t="n">
-        <v>28.2113810308819</v>
+        <v>28.21138103088191</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>100.5719078530531</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>275.9770021735818</v>
       </c>
       <c r="K21" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>187.8760176396507</v>
+        <v>634.2436048745725</v>
       </c>
       <c r="M21" t="n">
-        <v>740.1323715504301</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N21" t="n">
-        <v>759.7214730927637</v>
+        <v>759.7214730927639</v>
       </c>
       <c r="O21" t="n">
-        <v>694.9967242426204</v>
+        <v>660.7555366964343</v>
       </c>
       <c r="P21" t="n">
-        <v>557.7961431982453</v>
+        <v>557.7961431982454</v>
       </c>
       <c r="Q21" t="n">
-        <v>372.8719498286952</v>
+        <v>372.8719498286953</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>181.3625385436714</v>
       </c>
       <c r="S21" t="n">
-        <v>54.2575834086216</v>
+        <v>54.25758340862161</v>
       </c>
       <c r="T21" t="n">
-        <v>11.77395965821092</v>
+        <v>11.77395965821093</v>
       </c>
       <c r="U21" t="n">
         <v>0.1921756201013754</v>
@@ -32625,7 +32625,7 @@
         <v>21.77318271548567</v>
       </c>
       <c r="I22" t="n">
-        <v>73.64589818284925</v>
+        <v>73.64589818284927</v>
       </c>
       <c r="J22" t="n">
         <v>173.1391022273333</v>
@@ -32634,16 +32634,16 @@
         <v>284.5207311900886</v>
       </c>
       <c r="L22" t="n">
-        <v>364.0885788640618</v>
+        <v>364.0885788640619</v>
       </c>
       <c r="M22" t="n">
-        <v>383.8803574265021</v>
+        <v>383.8803574265022</v>
       </c>
       <c r="N22" t="n">
-        <v>374.7525405416874</v>
+        <v>374.7525405416875</v>
       </c>
       <c r="O22" t="n">
-        <v>346.1446266465962</v>
+        <v>346.1446266465963</v>
       </c>
       <c r="P22" t="n">
         <v>296.1865264282424</v>
@@ -32655,7 +32655,7 @@
         <v>110.1126397860859</v>
       </c>
       <c r="S22" t="n">
-        <v>42.67810967851328</v>
+        <v>42.67810967851329</v>
       </c>
       <c r="T22" t="n">
         <v>10.46359496551969</v>
@@ -32698,46 +32698,46 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.459461502377425</v>
+        <v>5.459461502377426</v>
       </c>
       <c r="H23" t="n">
-        <v>55.91171011122282</v>
+        <v>55.91171011122283</v>
       </c>
       <c r="I23" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J23" t="n">
-        <v>463.3649706874064</v>
+        <v>463.3649706874065</v>
       </c>
       <c r="K23" t="n">
-        <v>694.463976083043</v>
+        <v>694.4639760830431</v>
       </c>
       <c r="L23" t="n">
-        <v>861.5439710364263</v>
+        <v>861.5439710364265</v>
       </c>
       <c r="M23" t="n">
-        <v>958.6336695293307</v>
+        <v>958.633669529331</v>
       </c>
       <c r="N23" t="n">
-        <v>974.1453645229608</v>
+        <v>974.1453645229609</v>
       </c>
       <c r="O23" t="n">
-        <v>919.8578442086952</v>
+        <v>919.8578442086953</v>
       </c>
       <c r="P23" t="n">
-        <v>785.0773883687524</v>
+        <v>785.0773883687525</v>
       </c>
       <c r="Q23" t="n">
-        <v>589.5604233148606</v>
+        <v>589.5604233148607</v>
       </c>
       <c r="R23" t="n">
-        <v>342.9428985987162</v>
+        <v>342.9428985987163</v>
       </c>
       <c r="S23" t="n">
         <v>124.4074789854257</v>
       </c>
       <c r="T23" t="n">
-        <v>23.89879272665719</v>
+        <v>23.8987927266572</v>
       </c>
       <c r="U23" t="n">
         <v>0.436756920190194</v>
@@ -32780,7 +32780,7 @@
         <v>2.921069425540905</v>
       </c>
       <c r="H24" t="n">
-        <v>28.2113810308819</v>
+        <v>28.21138103088191</v>
       </c>
       <c r="I24" t="n">
         <v>99.52238</v>
@@ -32789,34 +32789,34 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>471.6886536848224</v>
       </c>
       <c r="L24" t="n">
-        <v>152.1929830599434</v>
+        <v>634.2436048745725</v>
       </c>
       <c r="M24" t="n">
-        <v>740.1323715504301</v>
+        <v>383.7393053889593</v>
       </c>
       <c r="N24" t="n">
-        <v>759.7214730927637</v>
+        <v>759.7214730927639</v>
       </c>
       <c r="O24" t="n">
-        <v>694.9967242426204</v>
+        <v>694.9967242426205</v>
       </c>
       <c r="P24" t="n">
-        <v>557.7961431982453</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>372.8719498286952</v>
+        <v>372.8719498286953</v>
       </c>
       <c r="R24" t="n">
-        <v>181.3625385436713</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.2575834086216</v>
+        <v>54.25758340862161</v>
       </c>
       <c r="T24" t="n">
-        <v>11.77395965821092</v>
+        <v>11.77395965821093</v>
       </c>
       <c r="U24" t="n">
         <v>0.1921756201013754</v>
@@ -32862,7 +32862,7 @@
         <v>21.77318271548567</v>
       </c>
       <c r="I25" t="n">
-        <v>73.64589818284925</v>
+        <v>73.64589818284927</v>
       </c>
       <c r="J25" t="n">
         <v>173.1391022273333</v>
@@ -32871,16 +32871,16 @@
         <v>284.5207311900886</v>
       </c>
       <c r="L25" t="n">
-        <v>364.0885788640618</v>
+        <v>364.0885788640619</v>
       </c>
       <c r="M25" t="n">
-        <v>383.8803574265021</v>
+        <v>383.8803574265022</v>
       </c>
       <c r="N25" t="n">
-        <v>374.7525405416874</v>
+        <v>374.7525405416875</v>
       </c>
       <c r="O25" t="n">
-        <v>346.1446266465962</v>
+        <v>346.1446266465963</v>
       </c>
       <c r="P25" t="n">
         <v>296.1865264282424</v>
@@ -32892,7 +32892,7 @@
         <v>110.1126397860859</v>
       </c>
       <c r="S25" t="n">
-        <v>42.67810967851328</v>
+        <v>42.67810967851329</v>
       </c>
       <c r="T25" t="n">
         <v>10.46359496551969</v>
@@ -32935,46 +32935,46 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.459461502377425</v>
+        <v>5.459461502377426</v>
       </c>
       <c r="H26" t="n">
-        <v>55.91171011122282</v>
+        <v>55.91171011122283</v>
       </c>
       <c r="I26" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J26" t="n">
-        <v>463.3649706874064</v>
+        <v>463.3649706874065</v>
       </c>
       <c r="K26" t="n">
-        <v>694.463976083043</v>
+        <v>694.4639760830431</v>
       </c>
       <c r="L26" t="n">
-        <v>861.5439710364263</v>
+        <v>861.5439710364265</v>
       </c>
       <c r="M26" t="n">
-        <v>958.6336695293307</v>
+        <v>958.633669529331</v>
       </c>
       <c r="N26" t="n">
-        <v>974.1453645229608</v>
+        <v>974.1453645229609</v>
       </c>
       <c r="O26" t="n">
-        <v>919.8578442086952</v>
+        <v>919.8578442086953</v>
       </c>
       <c r="P26" t="n">
-        <v>785.0773883687524</v>
+        <v>785.0773883687525</v>
       </c>
       <c r="Q26" t="n">
-        <v>589.5604233148606</v>
+        <v>589.5604233148607</v>
       </c>
       <c r="R26" t="n">
-        <v>342.9428985987162</v>
+        <v>342.9428985987163</v>
       </c>
       <c r="S26" t="n">
         <v>124.4074789854257</v>
       </c>
       <c r="T26" t="n">
-        <v>23.89879272665719</v>
+        <v>23.8987927266572</v>
       </c>
       <c r="U26" t="n">
         <v>0.436756920190194</v>
@@ -33017,10 +33017,10 @@
         <v>2.921069425540905</v>
       </c>
       <c r="H27" t="n">
-        <v>28.2113810308819</v>
+        <v>28.21138103088191</v>
       </c>
       <c r="I27" t="n">
-        <v>100.5719078530531</v>
+        <v>99.52238</v>
       </c>
       <c r="J27" t="n">
         <v>275.9770021735818</v>
@@ -33029,31 +33029,31 @@
         <v>471.6886536848224</v>
       </c>
       <c r="L27" t="n">
-        <v>634.2436048745724</v>
+        <v>634.2436048745725</v>
       </c>
       <c r="M27" t="n">
-        <v>740.1323715504301</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N27" t="n">
-        <v>759.7214730927637</v>
+        <v>392.6825986891673</v>
       </c>
       <c r="O27" t="n">
-        <v>421.3049304638558</v>
+        <v>694.9967242426205</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>557.7961431982454</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>372.8719498286953</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>181.3625385436714</v>
       </c>
       <c r="S27" t="n">
-        <v>54.2575834086216</v>
+        <v>54.25758340862161</v>
       </c>
       <c r="T27" t="n">
-        <v>11.77395965821092</v>
+        <v>11.77395965821093</v>
       </c>
       <c r="U27" t="n">
         <v>0.1921756201013754</v>
@@ -33099,7 +33099,7 @@
         <v>21.77318271548567</v>
       </c>
       <c r="I28" t="n">
-        <v>73.64589818284925</v>
+        <v>73.64589818284927</v>
       </c>
       <c r="J28" t="n">
         <v>173.1391022273333</v>
@@ -33108,16 +33108,16 @@
         <v>284.5207311900886</v>
       </c>
       <c r="L28" t="n">
-        <v>364.0885788640618</v>
+        <v>364.0885788640619</v>
       </c>
       <c r="M28" t="n">
-        <v>383.8803574265021</v>
+        <v>383.8803574265022</v>
       </c>
       <c r="N28" t="n">
-        <v>374.7525405416874</v>
+        <v>374.7525405416875</v>
       </c>
       <c r="O28" t="n">
-        <v>346.1446266465962</v>
+        <v>346.1446266465963</v>
       </c>
       <c r="P28" t="n">
         <v>296.1865264282424</v>
@@ -33129,7 +33129,7 @@
         <v>110.1126397860859</v>
       </c>
       <c r="S28" t="n">
-        <v>42.67810967851328</v>
+        <v>42.67810967851329</v>
       </c>
       <c r="T28" t="n">
         <v>10.46359496551969</v>
@@ -33172,46 +33172,46 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.459461502377425</v>
+        <v>5.459461502377426</v>
       </c>
       <c r="H29" t="n">
-        <v>55.91171011122282</v>
+        <v>55.91171011122283</v>
       </c>
       <c r="I29" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J29" t="n">
-        <v>463.3649706874064</v>
+        <v>463.3649706874065</v>
       </c>
       <c r="K29" t="n">
-        <v>694.463976083043</v>
+        <v>694.4639760830431</v>
       </c>
       <c r="L29" t="n">
-        <v>861.5439710364263</v>
+        <v>861.5439710364265</v>
       </c>
       <c r="M29" t="n">
-        <v>958.6336695293307</v>
+        <v>958.633669529331</v>
       </c>
       <c r="N29" t="n">
-        <v>974.1453645229608</v>
+        <v>974.1453645229609</v>
       </c>
       <c r="O29" t="n">
-        <v>919.8578442086952</v>
+        <v>919.8578442086953</v>
       </c>
       <c r="P29" t="n">
-        <v>785.0773883687524</v>
+        <v>785.0773883687525</v>
       </c>
       <c r="Q29" t="n">
-        <v>589.5604233148606</v>
+        <v>589.5604233148607</v>
       </c>
       <c r="R29" t="n">
-        <v>342.9428985987162</v>
+        <v>342.9428985987163</v>
       </c>
       <c r="S29" t="n">
         <v>124.4074789854257</v>
       </c>
       <c r="T29" t="n">
-        <v>23.89879272665719</v>
+        <v>23.8987927266572</v>
       </c>
       <c r="U29" t="n">
         <v>0.436756920190194</v>
@@ -33254,7 +33254,7 @@
         <v>2.921069425540905</v>
       </c>
       <c r="H30" t="n">
-        <v>28.2113810308819</v>
+        <v>28.21138103088191</v>
       </c>
       <c r="I30" t="n">
         <v>100.5719078530531</v>
@@ -33266,31 +33266,31 @@
         <v>471.6886536848224</v>
       </c>
       <c r="L30" t="n">
-        <v>634.2436048745724</v>
+        <v>634.2436048745725</v>
       </c>
       <c r="M30" t="n">
-        <v>740.1323715504301</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N30" t="n">
-        <v>759.7214730927637</v>
+        <v>759.7214730927639</v>
       </c>
       <c r="O30" t="n">
-        <v>421.3049304638558</v>
+        <v>326.9083219859709</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>557.7961431982454</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>372.8719498286953</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>181.3625385436714</v>
       </c>
       <c r="S30" t="n">
-        <v>54.2575834086216</v>
+        <v>54.25758340862161</v>
       </c>
       <c r="T30" t="n">
-        <v>11.77395965821092</v>
+        <v>11.77395965821093</v>
       </c>
       <c r="U30" t="n">
         <v>0.1921756201013754</v>
@@ -33336,7 +33336,7 @@
         <v>21.77318271548567</v>
       </c>
       <c r="I31" t="n">
-        <v>73.64589818284925</v>
+        <v>73.64589818284927</v>
       </c>
       <c r="J31" t="n">
         <v>173.1391022273333</v>
@@ -33345,16 +33345,16 @@
         <v>284.5207311900886</v>
       </c>
       <c r="L31" t="n">
-        <v>364.0885788640618</v>
+        <v>364.0885788640619</v>
       </c>
       <c r="M31" t="n">
-        <v>383.8803574265021</v>
+        <v>383.8803574265022</v>
       </c>
       <c r="N31" t="n">
-        <v>374.7525405416874</v>
+        <v>374.7525405416875</v>
       </c>
       <c r="O31" t="n">
-        <v>346.1446266465962</v>
+        <v>346.1446266465963</v>
       </c>
       <c r="P31" t="n">
         <v>296.1865264282424</v>
@@ -33366,7 +33366,7 @@
         <v>110.1126397860859</v>
       </c>
       <c r="S31" t="n">
-        <v>42.67810967851328</v>
+        <v>42.67810967851329</v>
       </c>
       <c r="T31" t="n">
         <v>10.46359496551969</v>
@@ -33409,46 +33409,46 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.459461502377425</v>
+        <v>5.459461502377426</v>
       </c>
       <c r="H32" t="n">
-        <v>55.91171011122282</v>
+        <v>55.91171011122283</v>
       </c>
       <c r="I32" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J32" t="n">
-        <v>463.3649706874064</v>
+        <v>463.3649706874065</v>
       </c>
       <c r="K32" t="n">
-        <v>694.463976083043</v>
+        <v>694.4639760830431</v>
       </c>
       <c r="L32" t="n">
-        <v>861.5439710364263</v>
+        <v>861.5439710364265</v>
       </c>
       <c r="M32" t="n">
-        <v>958.6336695293307</v>
+        <v>958.633669529331</v>
       </c>
       <c r="N32" t="n">
-        <v>974.1453645229608</v>
+        <v>974.1453645229609</v>
       </c>
       <c r="O32" t="n">
-        <v>919.8578442086952</v>
+        <v>919.8578442086953</v>
       </c>
       <c r="P32" t="n">
-        <v>785.0773883687524</v>
+        <v>785.0773883687525</v>
       </c>
       <c r="Q32" t="n">
-        <v>589.5604233148606</v>
+        <v>589.5604233148607</v>
       </c>
       <c r="R32" t="n">
-        <v>342.9428985987162</v>
+        <v>342.9428985987163</v>
       </c>
       <c r="S32" t="n">
         <v>124.4074789854257</v>
       </c>
       <c r="T32" t="n">
-        <v>23.89879272665719</v>
+        <v>23.8987927266572</v>
       </c>
       <c r="U32" t="n">
         <v>0.436756920190194</v>
@@ -33491,43 +33491,43 @@
         <v>2.921069425540905</v>
       </c>
       <c r="H33" t="n">
-        <v>28.2113810308819</v>
+        <v>28.21138103088191</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>100.5719078530531</v>
       </c>
       <c r="J33" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>471.6886536848224</v>
       </c>
       <c r="L33" t="n">
-        <v>187.8760176396507</v>
+        <v>634.2436048745725</v>
       </c>
       <c r="M33" t="n">
-        <v>740.1323715504301</v>
+        <v>740.1323715504302</v>
       </c>
       <c r="N33" t="n">
-        <v>759.7214730927637</v>
+        <v>495.1745885127933</v>
       </c>
       <c r="O33" t="n">
-        <v>694.9967242426204</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P33" t="n">
-        <v>557.7961431982453</v>
+        <v>557.7961431982454</v>
       </c>
       <c r="Q33" t="n">
-        <v>372.8719498286952</v>
+        <v>372.8719498286953</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>181.3625385436714</v>
       </c>
       <c r="S33" t="n">
-        <v>54.2575834086216</v>
+        <v>54.25758340862161</v>
       </c>
       <c r="T33" t="n">
-        <v>11.77395965821092</v>
+        <v>11.77395965821093</v>
       </c>
       <c r="U33" t="n">
         <v>0.1921756201013754</v>
@@ -33573,7 +33573,7 @@
         <v>21.77318271548567</v>
       </c>
       <c r="I34" t="n">
-        <v>73.64589818284925</v>
+        <v>73.64589818284927</v>
       </c>
       <c r="J34" t="n">
         <v>173.1391022273333</v>
@@ -33582,16 +33582,16 @@
         <v>284.5207311900886</v>
       </c>
       <c r="L34" t="n">
-        <v>364.0885788640618</v>
+        <v>364.0885788640619</v>
       </c>
       <c r="M34" t="n">
-        <v>383.8803574265021</v>
+        <v>383.8803574265022</v>
       </c>
       <c r="N34" t="n">
-        <v>374.7525405416874</v>
+        <v>374.7525405416875</v>
       </c>
       <c r="O34" t="n">
-        <v>346.1446266465962</v>
+        <v>346.1446266465963</v>
       </c>
       <c r="P34" t="n">
         <v>296.1865264282424</v>
@@ -33603,7 +33603,7 @@
         <v>110.1126397860859</v>
       </c>
       <c r="S34" t="n">
-        <v>42.67810967851328</v>
+        <v>42.67810967851329</v>
       </c>
       <c r="T34" t="n">
         <v>10.46359496551969</v>
@@ -33646,46 +33646,46 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.459461502377425</v>
+        <v>5.459461502377426</v>
       </c>
       <c r="H35" t="n">
-        <v>55.91171011122282</v>
+        <v>55.91171011122283</v>
       </c>
       <c r="I35" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J35" t="n">
-        <v>463.3649706874064</v>
+        <v>463.3649706874065</v>
       </c>
       <c r="K35" t="n">
-        <v>694.463976083043</v>
+        <v>694.4639760830431</v>
       </c>
       <c r="L35" t="n">
-        <v>861.5439710364263</v>
+        <v>861.5439710364265</v>
       </c>
       <c r="M35" t="n">
-        <v>958.6336695293307</v>
+        <v>958.633669529331</v>
       </c>
       <c r="N35" t="n">
-        <v>974.1453645229608</v>
+        <v>974.1453645229609</v>
       </c>
       <c r="O35" t="n">
-        <v>919.8578442086952</v>
+        <v>919.8578442086953</v>
       </c>
       <c r="P35" t="n">
-        <v>785.0773883687524</v>
+        <v>785.0773883687525</v>
       </c>
       <c r="Q35" t="n">
-        <v>589.5604233148606</v>
+        <v>589.5604233148607</v>
       </c>
       <c r="R35" t="n">
-        <v>342.9428985987162</v>
+        <v>342.9428985987163</v>
       </c>
       <c r="S35" t="n">
         <v>124.4074789854257</v>
       </c>
       <c r="T35" t="n">
-        <v>23.89879272665719</v>
+        <v>23.8987927266572</v>
       </c>
       <c r="U35" t="n">
         <v>0.436756920190194</v>
@@ -33728,10 +33728,10 @@
         <v>2.921069425540905</v>
       </c>
       <c r="H36" t="n">
-        <v>28.2113810308819</v>
+        <v>28.21138103088191</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>100.5719078530531</v>
       </c>
       <c r="J36" t="n">
         <v>126.8376266666667</v>
@@ -33740,31 +33740,31 @@
         <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>152.1929830599434</v>
+        <v>574.9651909908047</v>
       </c>
       <c r="M36" t="n">
-        <v>740.1323715504301</v>
+        <v>740.1323715504302</v>
       </c>
       <c r="N36" t="n">
-        <v>759.7214730927637</v>
+        <v>759.7214730927639</v>
       </c>
       <c r="O36" t="n">
-        <v>694.9967242426204</v>
+        <v>694.9967242426205</v>
       </c>
       <c r="P36" t="n">
-        <v>557.7961431982453</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>372.8719498286952</v>
+        <v>372.8719498286953</v>
       </c>
       <c r="R36" t="n">
-        <v>181.3625385436713</v>
+        <v>181.3625385436714</v>
       </c>
       <c r="S36" t="n">
-        <v>54.2575834086216</v>
+        <v>54.25758340862161</v>
       </c>
       <c r="T36" t="n">
-        <v>11.77395965821092</v>
+        <v>11.77395965821093</v>
       </c>
       <c r="U36" t="n">
         <v>0.1921756201013754</v>
@@ -33810,7 +33810,7 @@
         <v>21.77318271548567</v>
       </c>
       <c r="I37" t="n">
-        <v>73.64589818284925</v>
+        <v>73.64589818284927</v>
       </c>
       <c r="J37" t="n">
         <v>173.1391022273333</v>
@@ -33819,16 +33819,16 @@
         <v>284.5207311900886</v>
       </c>
       <c r="L37" t="n">
-        <v>364.0885788640618</v>
+        <v>364.0885788640619</v>
       </c>
       <c r="M37" t="n">
-        <v>383.8803574265021</v>
+        <v>383.8803574265022</v>
       </c>
       <c r="N37" t="n">
-        <v>374.7525405416874</v>
+        <v>374.7525405416875</v>
       </c>
       <c r="O37" t="n">
-        <v>346.1446266465962</v>
+        <v>346.1446266465963</v>
       </c>
       <c r="P37" t="n">
         <v>296.1865264282424</v>
@@ -33840,7 +33840,7 @@
         <v>110.1126397860859</v>
       </c>
       <c r="S37" t="n">
-        <v>42.67810967851328</v>
+        <v>42.67810967851329</v>
       </c>
       <c r="T37" t="n">
         <v>10.46359496551969</v>
@@ -33883,46 +33883,46 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.459461502377425</v>
+        <v>5.459461502377426</v>
       </c>
       <c r="H38" t="n">
-        <v>55.91171011122282</v>
+        <v>55.91171011122283</v>
       </c>
       <c r="I38" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J38" t="n">
-        <v>463.3649706874064</v>
+        <v>463.3649706874065</v>
       </c>
       <c r="K38" t="n">
-        <v>694.463976083043</v>
+        <v>694.4639760830431</v>
       </c>
       <c r="L38" t="n">
-        <v>861.5439710364263</v>
+        <v>861.5439710364265</v>
       </c>
       <c r="M38" t="n">
-        <v>958.6336695293307</v>
+        <v>958.633669529331</v>
       </c>
       <c r="N38" t="n">
-        <v>974.1453645229608</v>
+        <v>974.1453645229609</v>
       </c>
       <c r="O38" t="n">
-        <v>919.8578442086952</v>
+        <v>919.8578442086953</v>
       </c>
       <c r="P38" t="n">
-        <v>785.0773883687524</v>
+        <v>785.0773883687525</v>
       </c>
       <c r="Q38" t="n">
-        <v>589.5604233148606</v>
+        <v>589.5604233148607</v>
       </c>
       <c r="R38" t="n">
-        <v>342.9428985987162</v>
+        <v>342.9428985987163</v>
       </c>
       <c r="S38" t="n">
         <v>124.4074789854257</v>
       </c>
       <c r="T38" t="n">
-        <v>23.89879272665719</v>
+        <v>23.8987927266572</v>
       </c>
       <c r="U38" t="n">
         <v>0.436756920190194</v>
@@ -33965,7 +33965,7 @@
         <v>2.921069425540905</v>
       </c>
       <c r="H39" t="n">
-        <v>28.2113810308819</v>
+        <v>28.21138103088191</v>
       </c>
       <c r="I39" t="n">
         <v>99.52238</v>
@@ -33974,34 +33974,34 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
-        <v>348.1857632660258</v>
+        <v>471.6886536848224</v>
       </c>
       <c r="L39" t="n">
-        <v>634.2436048745724</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M39" t="n">
-        <v>740.1323715504301</v>
+        <v>740.1323715504302</v>
       </c>
       <c r="N39" t="n">
-        <v>759.7214730927637</v>
+        <v>439.5128616623689</v>
       </c>
       <c r="O39" t="n">
-        <v>694.9967242426204</v>
+        <v>694.9967242426205</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>557.7961431982454</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>372.8719498286953</v>
       </c>
       <c r="R39" t="n">
-        <v>145.679503963964</v>
+        <v>181.3625385436714</v>
       </c>
       <c r="S39" t="n">
-        <v>54.2575834086216</v>
+        <v>54.25758340862161</v>
       </c>
       <c r="T39" t="n">
-        <v>11.77395965821092</v>
+        <v>11.77395965821093</v>
       </c>
       <c r="U39" t="n">
         <v>0.1921756201013754</v>
@@ -34047,7 +34047,7 @@
         <v>21.77318271548567</v>
       </c>
       <c r="I40" t="n">
-        <v>73.64589818284925</v>
+        <v>73.64589818284927</v>
       </c>
       <c r="J40" t="n">
         <v>173.1391022273333</v>
@@ -34056,16 +34056,16 @@
         <v>284.5207311900886</v>
       </c>
       <c r="L40" t="n">
-        <v>364.0885788640618</v>
+        <v>364.0885788640619</v>
       </c>
       <c r="M40" t="n">
-        <v>383.8803574265021</v>
+        <v>383.8803574265022</v>
       </c>
       <c r="N40" t="n">
-        <v>374.7525405416874</v>
+        <v>374.7525405416875</v>
       </c>
       <c r="O40" t="n">
-        <v>346.1446266465962</v>
+        <v>346.1446266465963</v>
       </c>
       <c r="P40" t="n">
         <v>296.1865264282424</v>
@@ -34077,7 +34077,7 @@
         <v>110.1126397860859</v>
       </c>
       <c r="S40" t="n">
-        <v>42.67810967851328</v>
+        <v>42.67810967851329</v>
       </c>
       <c r="T40" t="n">
         <v>10.46359496551969</v>
@@ -34120,46 +34120,46 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.459461502377425</v>
+        <v>5.459461502377426</v>
       </c>
       <c r="H41" t="n">
-        <v>55.91171011122282</v>
+        <v>55.91171011122283</v>
       </c>
       <c r="I41" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J41" t="n">
-        <v>463.3649706874064</v>
+        <v>463.3649706874065</v>
       </c>
       <c r="K41" t="n">
-        <v>694.463976083043</v>
+        <v>694.4639760830431</v>
       </c>
       <c r="L41" t="n">
-        <v>861.5439710364263</v>
+        <v>861.5439710364265</v>
       </c>
       <c r="M41" t="n">
-        <v>958.6336695293307</v>
+        <v>958.633669529331</v>
       </c>
       <c r="N41" t="n">
-        <v>974.1453645229608</v>
+        <v>974.1453645229609</v>
       </c>
       <c r="O41" t="n">
-        <v>919.8578442086952</v>
+        <v>919.8578442086953</v>
       </c>
       <c r="P41" t="n">
-        <v>785.0773883687524</v>
+        <v>785.0773883687525</v>
       </c>
       <c r="Q41" t="n">
-        <v>589.5604233148606</v>
+        <v>589.5604233148607</v>
       </c>
       <c r="R41" t="n">
-        <v>342.9428985987162</v>
+        <v>342.9428985987163</v>
       </c>
       <c r="S41" t="n">
         <v>124.4074789854257</v>
       </c>
       <c r="T41" t="n">
-        <v>23.89879272665719</v>
+        <v>23.8987927266572</v>
       </c>
       <c r="U41" t="n">
         <v>0.436756920190194</v>
@@ -34202,7 +34202,7 @@
         <v>2.921069425540905</v>
       </c>
       <c r="H42" t="n">
-        <v>28.2113810308819</v>
+        <v>28.21138103088191</v>
       </c>
       <c r="I42" t="n">
         <v>99.52238</v>
@@ -34211,34 +34211,34 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
-        <v>348.1857632660258</v>
+        <v>471.6886536848224</v>
       </c>
       <c r="L42" t="n">
-        <v>634.2436048745724</v>
+        <v>634.2436048745725</v>
       </c>
       <c r="M42" t="n">
-        <v>740.1323715504301</v>
+        <v>740.1323715504302</v>
       </c>
       <c r="N42" t="n">
-        <v>759.7214730927637</v>
+        <v>496.2241163658465</v>
       </c>
       <c r="O42" t="n">
-        <v>694.9967242426204</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>557.7961431982454</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>372.8719498286953</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>181.3625385436714</v>
       </c>
       <c r="S42" t="n">
-        <v>54.2575834086216</v>
+        <v>54.25758340862161</v>
       </c>
       <c r="T42" t="n">
-        <v>11.77395965821092</v>
+        <v>11.77395965821093</v>
       </c>
       <c r="U42" t="n">
         <v>0.1921756201013754</v>
@@ -34284,7 +34284,7 @@
         <v>21.77318271548567</v>
       </c>
       <c r="I43" t="n">
-        <v>73.64589818284925</v>
+        <v>73.64589818284927</v>
       </c>
       <c r="J43" t="n">
         <v>173.1391022273333</v>
@@ -34293,16 +34293,16 @@
         <v>284.5207311900886</v>
       </c>
       <c r="L43" t="n">
-        <v>364.0885788640618</v>
+        <v>364.0885788640619</v>
       </c>
       <c r="M43" t="n">
-        <v>383.8803574265021</v>
+        <v>383.8803574265022</v>
       </c>
       <c r="N43" t="n">
-        <v>374.7525405416874</v>
+        <v>374.7525405416875</v>
       </c>
       <c r="O43" t="n">
-        <v>346.1446266465962</v>
+        <v>346.1446266465963</v>
       </c>
       <c r="P43" t="n">
         <v>296.1865264282424</v>
@@ -34314,7 +34314,7 @@
         <v>110.1126397860859</v>
       </c>
       <c r="S43" t="n">
-        <v>42.67810967851328</v>
+        <v>42.67810967851329</v>
       </c>
       <c r="T43" t="n">
         <v>10.46359496551969</v>
@@ -34357,46 +34357,46 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.459461502377425</v>
+        <v>5.459461502377426</v>
       </c>
       <c r="H44" t="n">
-        <v>55.91171011122282</v>
+        <v>55.91171011122283</v>
       </c>
       <c r="I44" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J44" t="n">
-        <v>463.3649706874064</v>
+        <v>463.3649706874065</v>
       </c>
       <c r="K44" t="n">
-        <v>694.463976083043</v>
+        <v>694.4639760830431</v>
       </c>
       <c r="L44" t="n">
-        <v>861.5439710364263</v>
+        <v>861.5439710364265</v>
       </c>
       <c r="M44" t="n">
-        <v>958.6336695293307</v>
+        <v>958.633669529331</v>
       </c>
       <c r="N44" t="n">
-        <v>974.1453645229608</v>
+        <v>974.1453645229609</v>
       </c>
       <c r="O44" t="n">
-        <v>919.8578442086952</v>
+        <v>919.8578442086953</v>
       </c>
       <c r="P44" t="n">
-        <v>785.0773883687524</v>
+        <v>785.0773883687525</v>
       </c>
       <c r="Q44" t="n">
-        <v>589.5604233148606</v>
+        <v>589.5604233148607</v>
       </c>
       <c r="R44" t="n">
-        <v>342.9428985987162</v>
+        <v>342.9428985987163</v>
       </c>
       <c r="S44" t="n">
         <v>124.4074789854257</v>
       </c>
       <c r="T44" t="n">
-        <v>23.89879272665719</v>
+        <v>23.8987927266572</v>
       </c>
       <c r="U44" t="n">
         <v>0.436756920190194</v>
@@ -34439,43 +34439,43 @@
         <v>2.921069425540905</v>
       </c>
       <c r="H45" t="n">
-        <v>28.2113810308819</v>
+        <v>28.21138103088191</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>100.5719078530531</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>275.9770021735818</v>
       </c>
       <c r="K45" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>634.2436048745724</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M45" t="n">
-        <v>740.1323715504301</v>
+        <v>603.5820714705304</v>
       </c>
       <c r="N45" t="n">
-        <v>759.7214730927637</v>
+        <v>759.7214730927639</v>
       </c>
       <c r="O45" t="n">
-        <v>694.9967242426204</v>
+        <v>694.9967242426205</v>
       </c>
       <c r="P45" t="n">
-        <v>308.6356971262896</v>
+        <v>557.7961431982454</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>372.8719498286953</v>
       </c>
       <c r="R45" t="n">
-        <v>181.3625385436713</v>
+        <v>181.3625385436714</v>
       </c>
       <c r="S45" t="n">
-        <v>54.2575834086216</v>
+        <v>54.25758340862161</v>
       </c>
       <c r="T45" t="n">
-        <v>11.77395965821092</v>
+        <v>11.77395965821093</v>
       </c>
       <c r="U45" t="n">
         <v>0.1921756201013754</v>
@@ -34521,7 +34521,7 @@
         <v>21.77318271548567</v>
       </c>
       <c r="I46" t="n">
-        <v>73.64589818284925</v>
+        <v>73.64589818284927</v>
       </c>
       <c r="J46" t="n">
         <v>173.1391022273333</v>
@@ -34530,16 +34530,16 @@
         <v>284.5207311900886</v>
       </c>
       <c r="L46" t="n">
-        <v>364.0885788640618</v>
+        <v>364.0885788640619</v>
       </c>
       <c r="M46" t="n">
-        <v>383.8803574265021</v>
+        <v>383.8803574265022</v>
       </c>
       <c r="N46" t="n">
-        <v>374.7525405416874</v>
+        <v>374.7525405416875</v>
       </c>
       <c r="O46" t="n">
-        <v>346.1446266465962</v>
+        <v>346.1446266465963</v>
       </c>
       <c r="P46" t="n">
         <v>296.1865264282424</v>
@@ -34551,7 +34551,7 @@
         <v>110.1126397860859</v>
       </c>
       <c r="S46" t="n">
-        <v>42.67810967851328</v>
+        <v>42.67810967851329</v>
       </c>
       <c r="T46" t="n">
         <v>10.46359496551969</v>
@@ -34778,19 +34778,19 @@
         <v>3.930118828988654</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>134.6170405889698</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>243.0338665604671</v>
       </c>
       <c r="M3" t="n">
-        <v>241.7614527146929</v>
+        <v>127.1540446485813</v>
       </c>
       <c r="N3" t="n">
         <v>263.2420339516666</v>
       </c>
       <c r="O3" t="n">
-        <v>263.0434990833253</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>193.9407825031299</v>
@@ -34936,7 +34936,7 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>115.8239578194291</v>
+        <v>115.8239578194292</v>
       </c>
       <c r="L5" t="n">
         <v>196.494535815018</v>
@@ -34945,10 +34945,10 @@
         <v>235.4123198945113</v>
       </c>
       <c r="N5" t="n">
-        <v>224.4417418455863</v>
+        <v>224.4417418455864</v>
       </c>
       <c r="O5" t="n">
-        <v>166.2898937894758</v>
+        <v>166.2898937894759</v>
       </c>
       <c r="P5" t="n">
         <v>103.8696448668208</v>
@@ -35012,16 +35012,16 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>3.930118828988654</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>134.6170405889698</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>243.0338665604671</v>
       </c>
       <c r="M6" t="n">
-        <v>263.2420339516666</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
         <v>263.2420339516666</v>
@@ -35030,10 +35030,10 @@
         <v>263.0434990833253</v>
       </c>
       <c r="P6" t="n">
-        <v>193.9407825031299</v>
+        <v>58.05132806838587</v>
       </c>
       <c r="Q6" t="n">
-        <v>58.86374454105316</v>
+        <v>76.41420694903813</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35097,19 +35097,19 @@
         <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>33.75987543178749</v>
+        <v>33.75987543178751</v>
       </c>
       <c r="M7" t="n">
-        <v>46.08911889082924</v>
+        <v>46.08911889082926</v>
       </c>
       <c r="N7" t="n">
-        <v>50.48273419507654</v>
+        <v>50.48273419507656</v>
       </c>
       <c r="O7" t="n">
-        <v>30.4508996191905</v>
+        <v>30.45089961919052</v>
       </c>
       <c r="P7" t="n">
-        <v>2.29774030202537</v>
+        <v>2.297740302025386</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35170,28 +35170,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>36.10224308182596</v>
+        <v>36.10224308182505</v>
       </c>
       <c r="K8" t="n">
-        <v>176.0723525736118</v>
+        <v>176.0723525736105</v>
       </c>
       <c r="L8" t="n">
-        <v>271.2379970350739</v>
+        <v>271.2379970350722</v>
       </c>
       <c r="M8" t="n">
-        <v>318.5788220249939</v>
+        <v>318.5788220249921</v>
       </c>
       <c r="N8" t="n">
-        <v>308.9539649284412</v>
+        <v>308.9539649284393</v>
       </c>
       <c r="O8" t="n">
-        <v>246.0923895621146</v>
+        <v>246.0923895621128</v>
       </c>
       <c r="P8" t="n">
-        <v>171.9792287127759</v>
+        <v>171.9792287127744</v>
       </c>
       <c r="Q8" t="n">
-        <v>51.14746097509504</v>
+        <v>51.14746097509388</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>27.87257220693266</v>
+        <v>27.87257220693212</v>
       </c>
       <c r="K9" t="n">
-        <v>175.5385069097425</v>
+        <v>104.9944345765297</v>
       </c>
       <c r="L9" t="n">
-        <v>298.0578280513505</v>
+        <v>298.0578280513492</v>
       </c>
       <c r="M9" t="n">
-        <v>399.0721465063758</v>
+        <v>399.0721465063727</v>
       </c>
       <c r="N9" t="n">
-        <v>5.18996163673548</v>
+        <v>399.0721465063727</v>
       </c>
       <c r="O9" t="n">
-        <v>323.33811253643</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>242.3325254662665</v>
+        <v>242.3325254662655</v>
       </c>
       <c r="Q9" t="n">
-        <v>108.762805580099</v>
+        <v>108.7628055800983</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35331,22 +35331,22 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>7.23566719236943</v>
+        <v>7.235667192368869</v>
       </c>
       <c r="L10" t="n">
-        <v>65.34647053296857</v>
+        <v>65.34647053296786</v>
       </c>
       <c r="M10" t="n">
-        <v>79.39275465759366</v>
+        <v>79.39275465759289</v>
       </c>
       <c r="N10" t="n">
-        <v>82.99448394059331</v>
+        <v>82.99448394059257</v>
       </c>
       <c r="O10" t="n">
-        <v>60.48076268835788</v>
+        <v>60.4807626883572</v>
       </c>
       <c r="P10" t="n">
-        <v>27.99347597685188</v>
+        <v>27.9934759768513</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>333.631713989811</v>
+        <v>282.3190661607202</v>
       </c>
       <c r="K11" t="n">
-        <v>474.3741250380625</v>
+        <v>474.3741250380626</v>
       </c>
       <c r="L11" t="n">
-        <v>625.777556066439</v>
+        <v>625.7775560664393</v>
       </c>
       <c r="M11" t="n">
-        <v>728.287436302058</v>
+        <v>728.2874363020583</v>
       </c>
       <c r="N11" t="n">
-        <v>744.7323009263698</v>
+        <v>744.73230092637</v>
       </c>
       <c r="O11" t="n">
-        <v>689.7596327870084</v>
+        <v>689.7596327870085</v>
       </c>
       <c r="P11" t="n">
-        <v>553.8443926134828</v>
+        <v>553.844392613483</v>
       </c>
       <c r="Q11" t="n">
-        <v>367.2547334404111</v>
+        <v>418.5673812695001</v>
       </c>
       <c r="R11" t="n">
-        <v>127.3573607845841</v>
+        <v>127.3573607845842</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,31 +35486,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>149.1393755069151</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>333.8472147104634</v>
       </c>
       <c r="L12" t="n">
-        <v>282.21181360245</v>
+        <v>495.6892250946983</v>
       </c>
       <c r="M12" t="n">
-        <v>597.9983376284117</v>
+        <v>185.3616053945795</v>
       </c>
       <c r="N12" t="n">
-        <v>628.3797610094305</v>
+        <v>628.3797610094306</v>
       </c>
       <c r="O12" t="n">
-        <v>552.400479798176</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>423.8217357839151</v>
+        <v>423.8217357839152</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>232.8901757426738</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>35.68303457970742</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>79.77992211066049</v>
+        <v>79.77992211066052</v>
       </c>
       <c r="K13" t="n">
         <v>262.2512393642057</v>
@@ -35574,19 +35574,19 @@
         <v>391.678604124378</v>
       </c>
       <c r="M13" t="n">
-        <v>423.4642343883427</v>
+        <v>423.4642343883428</v>
       </c>
       <c r="N13" t="n">
         <v>418.8847129209161</v>
       </c>
       <c r="O13" t="n">
-        <v>370.7297545606359</v>
+        <v>370.729754560636</v>
       </c>
       <c r="P13" t="n">
-        <v>293.4650856931358</v>
+        <v>293.4650856931359</v>
       </c>
       <c r="Q13" t="n">
-        <v>118.9021551044798</v>
+        <v>118.9021551044799</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>282.3190661607201</v>
+        <v>282.3190661607202</v>
       </c>
       <c r="K14" t="n">
-        <v>525.6867728671534</v>
+        <v>474.3741250380626</v>
       </c>
       <c r="L14" t="n">
-        <v>625.777556066439</v>
+        <v>677.0902038955297</v>
       </c>
       <c r="M14" t="n">
-        <v>728.287436302058</v>
+        <v>728.2874363020583</v>
       </c>
       <c r="N14" t="n">
-        <v>744.7323009263698</v>
+        <v>744.73230092637</v>
       </c>
       <c r="O14" t="n">
-        <v>689.7596327870084</v>
+        <v>689.7596327870085</v>
       </c>
       <c r="P14" t="n">
-        <v>553.8443926134828</v>
+        <v>553.844392613483</v>
       </c>
       <c r="Q14" t="n">
-        <v>367.2547334404111</v>
+        <v>367.2547334404112</v>
       </c>
       <c r="R14" t="n">
-        <v>127.3573607845841</v>
+        <v>127.3573607845842</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,25 +35723,25 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>149.1393755069151</v>
       </c>
       <c r="K15" t="n">
-        <v>210.3443242916669</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>495.6892250946982</v>
+        <v>133.0724380955346</v>
       </c>
       <c r="M15" t="n">
-        <v>597.9983376284117</v>
+        <v>597.9983376284119</v>
       </c>
       <c r="N15" t="n">
-        <v>628.3797610094305</v>
+        <v>628.3797610094306</v>
       </c>
       <c r="O15" t="n">
-        <v>552.400479798176</v>
+        <v>552.4004797981761</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>423.8217357839152</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>79.77992211066049</v>
+        <v>79.77992211066052</v>
       </c>
       <c r="K16" t="n">
         <v>262.2512393642057</v>
@@ -35811,19 +35811,19 @@
         <v>391.678604124378</v>
       </c>
       <c r="M16" t="n">
-        <v>423.4642343883427</v>
+        <v>423.4642343883428</v>
       </c>
       <c r="N16" t="n">
         <v>418.8847129209161</v>
       </c>
       <c r="O16" t="n">
-        <v>370.7297545606359</v>
+        <v>370.729754560636</v>
       </c>
       <c r="P16" t="n">
-        <v>293.4650856931358</v>
+        <v>293.4650856931359</v>
       </c>
       <c r="Q16" t="n">
-        <v>118.9021551044798</v>
+        <v>118.9021551044799</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,31 +35881,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>282.3190661607201</v>
+        <v>333.6317139898107</v>
       </c>
       <c r="K17" t="n">
-        <v>474.3741250380625</v>
+        <v>474.3741250380626</v>
       </c>
       <c r="L17" t="n">
-        <v>625.777556066439</v>
+        <v>625.7775560664393</v>
       </c>
       <c r="M17" t="n">
-        <v>728.287436302058</v>
+        <v>728.2874363020583</v>
       </c>
       <c r="N17" t="n">
-        <v>744.7323009263698</v>
+        <v>744.73230092637</v>
       </c>
       <c r="O17" t="n">
-        <v>741.0722806160995</v>
+        <v>689.7596327870085</v>
       </c>
       <c r="P17" t="n">
-        <v>553.8443926134828</v>
+        <v>553.844392613483</v>
       </c>
       <c r="Q17" t="n">
-        <v>367.2547334404111</v>
+        <v>367.2547334404112</v>
       </c>
       <c r="R17" t="n">
-        <v>127.3573607845841</v>
+        <v>127.3573607845842</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,34 +35957,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.049527853053121</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>149.1393755069151</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>495.6892250946982</v>
+        <v>495.6892250946983</v>
       </c>
       <c r="M18" t="n">
-        <v>597.9983376284117</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>628.3797610094305</v>
+        <v>594.1385734632444</v>
       </c>
       <c r="O18" t="n">
-        <v>552.400479798176</v>
+        <v>552.4004797981761</v>
       </c>
       <c r="P18" t="n">
-        <v>210.3443242916667</v>
+        <v>423.8217357839152</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>232.8901757426738</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>35.68303457970742</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,7 +36039,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>79.77992211066049</v>
+        <v>79.77992211066052</v>
       </c>
       <c r="K19" t="n">
         <v>262.2512393642057</v>
@@ -36048,19 +36048,19 @@
         <v>391.678604124378</v>
       </c>
       <c r="M19" t="n">
-        <v>423.4642343883427</v>
+        <v>423.4642343883428</v>
       </c>
       <c r="N19" t="n">
         <v>418.8847129209161</v>
       </c>
       <c r="O19" t="n">
-        <v>370.7297545606359</v>
+        <v>370.729754560636</v>
       </c>
       <c r="P19" t="n">
-        <v>293.4650856931358</v>
+        <v>293.4650856931359</v>
       </c>
       <c r="Q19" t="n">
-        <v>118.9021551044798</v>
+        <v>118.9021551044799</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36118,31 +36118,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>282.3190661607201</v>
+        <v>282.3190661607202</v>
       </c>
       <c r="K20" t="n">
-        <v>474.3741250380625</v>
+        <v>474.3741250380626</v>
       </c>
       <c r="L20" t="n">
-        <v>625.777556066439</v>
+        <v>625.7775560664393</v>
       </c>
       <c r="M20" t="n">
-        <v>728.287436302058</v>
+        <v>728.2874363020583</v>
       </c>
       <c r="N20" t="n">
-        <v>744.7323009263698</v>
+        <v>744.73230092637</v>
       </c>
       <c r="O20" t="n">
-        <v>689.7596327870084</v>
+        <v>689.7596327870085</v>
       </c>
       <c r="P20" t="n">
-        <v>553.8443926134828</v>
+        <v>605.1570404425727</v>
       </c>
       <c r="Q20" t="n">
-        <v>367.2547334404111</v>
+        <v>367.2547334404112</v>
       </c>
       <c r="R20" t="n">
-        <v>178.670008613675</v>
+        <v>127.3573607845842</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,34 +36194,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.049527853053121</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>149.1393755069151</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>49.32163785977649</v>
+        <v>495.6892250946983</v>
       </c>
       <c r="M21" t="n">
-        <v>597.9983376284117</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>628.3797610094305</v>
+        <v>628.3797610094306</v>
       </c>
       <c r="O21" t="n">
-        <v>552.400479798176</v>
+        <v>518.1592922519899</v>
       </c>
       <c r="P21" t="n">
-        <v>423.8217357839151</v>
+        <v>423.8217357839152</v>
       </c>
       <c r="Q21" t="n">
-        <v>232.8901757426737</v>
+        <v>232.8901757426738</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>35.68303457970742</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,7 +36276,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>79.77992211066049</v>
+        <v>79.77992211066052</v>
       </c>
       <c r="K22" t="n">
         <v>262.2512393642057</v>
@@ -36285,19 +36285,19 @@
         <v>391.678604124378</v>
       </c>
       <c r="M22" t="n">
-        <v>423.4642343883427</v>
+        <v>423.4642343883428</v>
       </c>
       <c r="N22" t="n">
         <v>418.8847129209161</v>
       </c>
       <c r="O22" t="n">
-        <v>370.7297545606359</v>
+        <v>370.729754560636</v>
       </c>
       <c r="P22" t="n">
-        <v>293.4650856931358</v>
+        <v>293.4650856931359</v>
       </c>
       <c r="Q22" t="n">
-        <v>118.9021551044798</v>
+        <v>118.9021551044799</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36355,31 +36355,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>282.3190661607201</v>
+        <v>282.3190661607202</v>
       </c>
       <c r="K23" t="n">
-        <v>474.3741250380625</v>
+        <v>474.3741250380626</v>
       </c>
       <c r="L23" t="n">
-        <v>625.777556066439</v>
+        <v>625.7775560664393</v>
       </c>
       <c r="M23" t="n">
-        <v>728.287436302058</v>
+        <v>728.2874363020583</v>
       </c>
       <c r="N23" t="n">
-        <v>744.7323009263698</v>
+        <v>744.73230092637</v>
       </c>
       <c r="O23" t="n">
-        <v>689.7596327870084</v>
+        <v>741.0722806160982</v>
       </c>
       <c r="P23" t="n">
-        <v>553.8443926134828</v>
+        <v>553.844392613483</v>
       </c>
       <c r="Q23" t="n">
-        <v>367.2547334404111</v>
+        <v>367.2547334404112</v>
       </c>
       <c r="R23" t="n">
-        <v>178.670008613675</v>
+        <v>127.3573607845842</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36437,28 +36437,28 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>333.8472147104634</v>
       </c>
       <c r="L24" t="n">
-        <v>13.63860328006924</v>
+        <v>495.6892250946983</v>
       </c>
       <c r="M24" t="n">
-        <v>597.9983376284117</v>
+        <v>241.605271466941</v>
       </c>
       <c r="N24" t="n">
-        <v>628.3797610094305</v>
+        <v>628.3797610094306</v>
       </c>
       <c r="O24" t="n">
-        <v>552.400479798176</v>
+        <v>552.4004797981761</v>
       </c>
       <c r="P24" t="n">
-        <v>423.8217357839151</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>232.8901757426737</v>
+        <v>232.8901757426738</v>
       </c>
       <c r="R24" t="n">
-        <v>35.6830345797074</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,7 +36513,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>79.77992211066049</v>
+        <v>79.77992211066052</v>
       </c>
       <c r="K25" t="n">
         <v>262.2512393642057</v>
@@ -36522,19 +36522,19 @@
         <v>391.678604124378</v>
       </c>
       <c r="M25" t="n">
-        <v>423.4642343883427</v>
+        <v>423.4642343883428</v>
       </c>
       <c r="N25" t="n">
         <v>418.8847129209161</v>
       </c>
       <c r="O25" t="n">
-        <v>370.7297545606359</v>
+        <v>370.729754560636</v>
       </c>
       <c r="P25" t="n">
-        <v>293.4650856931358</v>
+        <v>293.4650856931359</v>
       </c>
       <c r="Q25" t="n">
-        <v>118.9021551044798</v>
+        <v>118.9021551044799</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36592,31 +36592,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>282.3190661607201</v>
+        <v>282.3190661607202</v>
       </c>
       <c r="K26" t="n">
-        <v>474.3741250380625</v>
+        <v>474.3741250380626</v>
       </c>
       <c r="L26" t="n">
-        <v>625.777556066439</v>
+        <v>625.7775560664393</v>
       </c>
       <c r="M26" t="n">
-        <v>728.287436302058</v>
+        <v>728.2874363020583</v>
       </c>
       <c r="N26" t="n">
-        <v>744.7323009263698</v>
+        <v>744.73230092637</v>
       </c>
       <c r="O26" t="n">
-        <v>689.7596327870084</v>
+        <v>689.7596327870085</v>
       </c>
       <c r="P26" t="n">
-        <v>553.8443926134828</v>
+        <v>553.844392613483</v>
       </c>
       <c r="Q26" t="n">
-        <v>367.2547334404111</v>
+        <v>418.5673812695001</v>
       </c>
       <c r="R26" t="n">
-        <v>178.670008613675</v>
+        <v>127.3573607845842</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,7 +36668,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.049527853053107</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>149.1393755069151</v>
@@ -36677,25 +36677,25 @@
         <v>333.8472147104634</v>
       </c>
       <c r="L27" t="n">
-        <v>495.6892250946982</v>
+        <v>495.6892250946983</v>
       </c>
       <c r="M27" t="n">
-        <v>597.9983376284117</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>628.3797610094305</v>
+        <v>261.340886605834</v>
       </c>
       <c r="O27" t="n">
-        <v>278.7086860194114</v>
+        <v>552.4004797981761</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>423.8217357839152</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>232.8901757426738</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>35.68303457970742</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>79.77992211066049</v>
+        <v>79.77992211066052</v>
       </c>
       <c r="K28" t="n">
         <v>262.2512393642057</v>
@@ -36759,19 +36759,19 @@
         <v>391.678604124378</v>
       </c>
       <c r="M28" t="n">
-        <v>423.4642343883427</v>
+        <v>423.4642343883428</v>
       </c>
       <c r="N28" t="n">
         <v>418.8847129209161</v>
       </c>
       <c r="O28" t="n">
-        <v>370.7297545606359</v>
+        <v>370.729754560636</v>
       </c>
       <c r="P28" t="n">
-        <v>293.4650856931358</v>
+        <v>293.4650856931359</v>
       </c>
       <c r="Q28" t="n">
-        <v>118.9021551044798</v>
+        <v>118.9021551044799</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,31 +36829,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>282.3190661607201</v>
+        <v>282.3190661607202</v>
       </c>
       <c r="K29" t="n">
-        <v>474.3741250380625</v>
+        <v>474.3741250380626</v>
       </c>
       <c r="L29" t="n">
-        <v>625.777556066439</v>
+        <v>625.7775560664393</v>
       </c>
       <c r="M29" t="n">
-        <v>728.287436302058</v>
+        <v>779.6000841311486</v>
       </c>
       <c r="N29" t="n">
-        <v>744.7323009263698</v>
+        <v>744.73230092637</v>
       </c>
       <c r="O29" t="n">
-        <v>689.7596327870084</v>
+        <v>689.7596327870085</v>
       </c>
       <c r="P29" t="n">
-        <v>553.8443926134828</v>
+        <v>553.844392613483</v>
       </c>
       <c r="Q29" t="n">
-        <v>367.2547334404111</v>
+        <v>367.2547334404112</v>
       </c>
       <c r="R29" t="n">
-        <v>178.6700086136759</v>
+        <v>127.3573607845842</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,7 +36905,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.049527853053107</v>
+        <v>1.049527853053121</v>
       </c>
       <c r="J30" t="n">
         <v>149.1393755069151</v>
@@ -36914,25 +36914,25 @@
         <v>333.8472147104634</v>
       </c>
       <c r="L30" t="n">
-        <v>495.6892250946982</v>
+        <v>495.6892250946983</v>
       </c>
       <c r="M30" t="n">
-        <v>597.9983376284117</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>628.3797610094305</v>
+        <v>628.3797610094306</v>
       </c>
       <c r="O30" t="n">
-        <v>278.7086860194114</v>
+        <v>184.3120775415265</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>423.8217357839152</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>232.8901757426738</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>35.68303457970742</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,7 +36987,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>79.77992211066049</v>
+        <v>79.77992211066052</v>
       </c>
       <c r="K31" t="n">
         <v>262.2512393642057</v>
@@ -36996,19 +36996,19 @@
         <v>391.678604124378</v>
       </c>
       <c r="M31" t="n">
-        <v>423.4642343883427</v>
+        <v>423.4642343883428</v>
       </c>
       <c r="N31" t="n">
         <v>418.8847129209161</v>
       </c>
       <c r="O31" t="n">
-        <v>370.7297545606359</v>
+        <v>370.729754560636</v>
       </c>
       <c r="P31" t="n">
-        <v>293.4650856931358</v>
+        <v>293.4650856931359</v>
       </c>
       <c r="Q31" t="n">
-        <v>118.9021551044798</v>
+        <v>118.9021551044799</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,31 +37066,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>282.3190661607201</v>
+        <v>282.3190661607202</v>
       </c>
       <c r="K32" t="n">
-        <v>474.3741250380625</v>
+        <v>474.3741250380626</v>
       </c>
       <c r="L32" t="n">
-        <v>625.777556066439</v>
+        <v>625.7775560664393</v>
       </c>
       <c r="M32" t="n">
-        <v>728.287436302058</v>
+        <v>728.2874363020583</v>
       </c>
       <c r="N32" t="n">
-        <v>796.0449487554608</v>
+        <v>744.73230092637</v>
       </c>
       <c r="O32" t="n">
-        <v>689.7596327870084</v>
+        <v>689.7596327870085</v>
       </c>
       <c r="P32" t="n">
-        <v>553.8443926134828</v>
+        <v>553.844392613483</v>
       </c>
       <c r="Q32" t="n">
-        <v>367.2547334404111</v>
+        <v>367.2547334404112</v>
       </c>
       <c r="R32" t="n">
-        <v>127.3573607845841</v>
+        <v>178.6700086136732</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,34 +37142,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.049527853053121</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>333.8472147104634</v>
       </c>
       <c r="L33" t="n">
-        <v>49.32163785977649</v>
+        <v>495.6892250946983</v>
       </c>
       <c r="M33" t="n">
-        <v>597.9983376284117</v>
+        <v>597.9983376284119</v>
       </c>
       <c r="N33" t="n">
-        <v>628.3797610094305</v>
+        <v>363.83287642946</v>
       </c>
       <c r="O33" t="n">
-        <v>552.400479798176</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>423.8217357839151</v>
+        <v>423.8217357839152</v>
       </c>
       <c r="Q33" t="n">
-        <v>232.8901757426737</v>
+        <v>232.8901757426738</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>35.68303457970742</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>79.77992211066049</v>
+        <v>79.77992211066052</v>
       </c>
       <c r="K34" t="n">
         <v>262.2512393642057</v>
@@ -37233,19 +37233,19 @@
         <v>391.678604124378</v>
       </c>
       <c r="M34" t="n">
-        <v>423.4642343883427</v>
+        <v>423.4642343883428</v>
       </c>
       <c r="N34" t="n">
         <v>418.8847129209161</v>
       </c>
       <c r="O34" t="n">
-        <v>370.7297545606359</v>
+        <v>370.729754560636</v>
       </c>
       <c r="P34" t="n">
-        <v>293.4650856931358</v>
+        <v>293.4650856931359</v>
       </c>
       <c r="Q34" t="n">
-        <v>118.9021551044798</v>
+        <v>118.9021551044799</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37303,31 +37303,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>282.3190661607201</v>
+        <v>282.3190661607202</v>
       </c>
       <c r="K35" t="n">
-        <v>474.3741250380625</v>
+        <v>474.3741250380626</v>
       </c>
       <c r="L35" t="n">
-        <v>625.777556066439</v>
+        <v>625.7775560664393</v>
       </c>
       <c r="M35" t="n">
-        <v>728.287436302058</v>
+        <v>728.2874363020583</v>
       </c>
       <c r="N35" t="n">
-        <v>744.7323009263698</v>
+        <v>744.73230092637</v>
       </c>
       <c r="O35" t="n">
-        <v>689.7596327870084</v>
+        <v>689.7596327870085</v>
       </c>
       <c r="P35" t="n">
-        <v>553.8443926134828</v>
+        <v>605.1570404425727</v>
       </c>
       <c r="Q35" t="n">
-        <v>418.5673812695019</v>
+        <v>367.2547334404112</v>
       </c>
       <c r="R35" t="n">
-        <v>127.3573607845841</v>
+        <v>127.3573607845842</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,7 +37379,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.049527853053121</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -37388,25 +37388,25 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>13.63860328006924</v>
+        <v>436.4108112109305</v>
       </c>
       <c r="M36" t="n">
-        <v>597.9983376284117</v>
+        <v>597.9983376284119</v>
       </c>
       <c r="N36" t="n">
-        <v>628.3797610094305</v>
+        <v>628.3797610094306</v>
       </c>
       <c r="O36" t="n">
-        <v>552.400479798176</v>
+        <v>552.4004797981761</v>
       </c>
       <c r="P36" t="n">
-        <v>423.8217357839151</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>232.8901757426737</v>
+        <v>232.8901757426738</v>
       </c>
       <c r="R36" t="n">
-        <v>35.6830345797074</v>
+        <v>35.68303457970742</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>79.77992211066049</v>
+        <v>79.77992211066052</v>
       </c>
       <c r="K37" t="n">
         <v>262.2512393642057</v>
@@ -37470,19 +37470,19 @@
         <v>391.678604124378</v>
       </c>
       <c r="M37" t="n">
-        <v>423.4642343883427</v>
+        <v>423.4642343883428</v>
       </c>
       <c r="N37" t="n">
         <v>418.8847129209161</v>
       </c>
       <c r="O37" t="n">
-        <v>370.7297545606359</v>
+        <v>370.729754560636</v>
       </c>
       <c r="P37" t="n">
-        <v>293.4650856931358</v>
+        <v>293.4650856931359</v>
       </c>
       <c r="Q37" t="n">
-        <v>118.9021551044798</v>
+        <v>118.9021551044799</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37540,31 +37540,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>333.631713989811</v>
+        <v>282.3190661607202</v>
       </c>
       <c r="K38" t="n">
-        <v>474.3741250380625</v>
+        <v>474.3741250380626</v>
       </c>
       <c r="L38" t="n">
-        <v>625.777556066439</v>
+        <v>625.7775560664393</v>
       </c>
       <c r="M38" t="n">
-        <v>728.287436302058</v>
+        <v>728.2874363020583</v>
       </c>
       <c r="N38" t="n">
-        <v>744.7323009263698</v>
+        <v>744.73230092637</v>
       </c>
       <c r="O38" t="n">
-        <v>689.7596327870084</v>
+        <v>689.7596327870085</v>
       </c>
       <c r="P38" t="n">
-        <v>553.8443926134828</v>
+        <v>605.1570404425727</v>
       </c>
       <c r="Q38" t="n">
-        <v>367.2547334404111</v>
+        <v>367.2547334404112</v>
       </c>
       <c r="R38" t="n">
-        <v>127.3573607845841</v>
+        <v>127.3573607845842</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37622,28 +37622,28 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>210.3443242916669</v>
+        <v>333.8472147104634</v>
       </c>
       <c r="L39" t="n">
-        <v>495.6892250946982</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>597.9983376284117</v>
+        <v>597.9983376284119</v>
       </c>
       <c r="N39" t="n">
-        <v>628.3797610094305</v>
+        <v>308.1711495790356</v>
       </c>
       <c r="O39" t="n">
-        <v>552.400479798176</v>
+        <v>552.4004797981761</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>423.8217357839152</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>232.8901757426738</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>35.68303457970742</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>79.77992211066049</v>
+        <v>79.77992211066052</v>
       </c>
       <c r="K40" t="n">
         <v>262.2512393642057</v>
@@ -37707,19 +37707,19 @@
         <v>391.678604124378</v>
       </c>
       <c r="M40" t="n">
-        <v>423.4642343883427</v>
+        <v>423.4642343883428</v>
       </c>
       <c r="N40" t="n">
         <v>418.8847129209161</v>
       </c>
       <c r="O40" t="n">
-        <v>370.7297545606359</v>
+        <v>370.729754560636</v>
       </c>
       <c r="P40" t="n">
-        <v>293.4650856931358</v>
+        <v>293.4650856931359</v>
       </c>
       <c r="Q40" t="n">
-        <v>118.9021551044798</v>
+        <v>118.9021551044799</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37777,31 +37777,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>282.3190661607201</v>
+        <v>282.3190661607202</v>
       </c>
       <c r="K41" t="n">
-        <v>474.3741250380625</v>
+        <v>474.3741250380626</v>
       </c>
       <c r="L41" t="n">
-        <v>625.777556066439</v>
+        <v>625.7775560664393</v>
       </c>
       <c r="M41" t="n">
-        <v>728.287436302058</v>
+        <v>728.2874363020583</v>
       </c>
       <c r="N41" t="n">
-        <v>744.7323009263698</v>
+        <v>744.73230092637</v>
       </c>
       <c r="O41" t="n">
-        <v>689.7596327870084</v>
+        <v>689.7596327870085</v>
       </c>
       <c r="P41" t="n">
-        <v>553.8443926134828</v>
+        <v>553.844392613483</v>
       </c>
       <c r="Q41" t="n">
-        <v>418.5673812695019</v>
+        <v>367.2547334404112</v>
       </c>
       <c r="R41" t="n">
-        <v>127.3573607845841</v>
+        <v>178.6700086136723</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37859,28 +37859,28 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>210.3443242916669</v>
+        <v>333.8472147104634</v>
       </c>
       <c r="L42" t="n">
-        <v>495.6892250946982</v>
+        <v>495.6892250946983</v>
       </c>
       <c r="M42" t="n">
-        <v>597.9983376284117</v>
+        <v>597.9983376284119</v>
       </c>
       <c r="N42" t="n">
-        <v>628.3797610094305</v>
+        <v>364.8824042825132</v>
       </c>
       <c r="O42" t="n">
-        <v>552.400479798176</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>423.8217357839152</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>232.8901757426738</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>35.68303457970742</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>79.77992211066049</v>
+        <v>79.77992211066052</v>
       </c>
       <c r="K43" t="n">
         <v>262.2512393642057</v>
@@ -37944,19 +37944,19 @@
         <v>391.678604124378</v>
       </c>
       <c r="M43" t="n">
-        <v>423.4642343883427</v>
+        <v>423.4642343883428</v>
       </c>
       <c r="N43" t="n">
         <v>418.8847129209161</v>
       </c>
       <c r="O43" t="n">
-        <v>370.7297545606359</v>
+        <v>370.729754560636</v>
       </c>
       <c r="P43" t="n">
-        <v>293.4650856931358</v>
+        <v>293.4650856931359</v>
       </c>
       <c r="Q43" t="n">
-        <v>118.9021551044798</v>
+        <v>118.9021551044799</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38014,31 +38014,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>333.631713989811</v>
+        <v>282.3190661607202</v>
       </c>
       <c r="K44" t="n">
-        <v>474.3741250380625</v>
+        <v>474.3741250380626</v>
       </c>
       <c r="L44" t="n">
-        <v>625.777556066439</v>
+        <v>625.7775560664393</v>
       </c>
       <c r="M44" t="n">
-        <v>728.287436302058</v>
+        <v>728.2874363020583</v>
       </c>
       <c r="N44" t="n">
-        <v>744.7323009263698</v>
+        <v>744.73230092637</v>
       </c>
       <c r="O44" t="n">
-        <v>689.7596327870084</v>
+        <v>689.7596327870085</v>
       </c>
       <c r="P44" t="n">
-        <v>553.8443926134828</v>
+        <v>553.844392613483</v>
       </c>
       <c r="Q44" t="n">
-        <v>367.2547334404111</v>
+        <v>367.2547334404112</v>
       </c>
       <c r="R44" t="n">
-        <v>127.3573607845841</v>
+        <v>178.6700086136732</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,34 +38090,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.049527853053121</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>149.1393755069151</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>495.6892250946982</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>597.9983376284117</v>
+        <v>461.4480375485121</v>
       </c>
       <c r="N45" t="n">
-        <v>628.3797610094305</v>
+        <v>628.3797610094306</v>
       </c>
       <c r="O45" t="n">
-        <v>552.400479798176</v>
+        <v>552.4004797981761</v>
       </c>
       <c r="P45" t="n">
-        <v>174.6612897119594</v>
+        <v>423.8217357839152</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>232.8901757426738</v>
       </c>
       <c r="R45" t="n">
-        <v>35.6830345797074</v>
+        <v>35.68303457970742</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>79.77992211066049</v>
+        <v>79.77992211066052</v>
       </c>
       <c r="K46" t="n">
         <v>262.2512393642057</v>
@@ -38181,19 +38181,19 @@
         <v>391.678604124378</v>
       </c>
       <c r="M46" t="n">
-        <v>423.4642343883427</v>
+        <v>423.4642343883428</v>
       </c>
       <c r="N46" t="n">
         <v>418.8847129209161</v>
       </c>
       <c r="O46" t="n">
-        <v>370.7297545606359</v>
+        <v>370.729754560636</v>
       </c>
       <c r="P46" t="n">
-        <v>293.4650856931358</v>
+        <v>293.4650856931359</v>
       </c>
       <c r="Q46" t="n">
-        <v>118.9021551044798</v>
+        <v>118.9021551044799</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
